--- a/BackTest/2019-10-19 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-19 BackTest HDAC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-100</v>
+      </c>
       <c r="L12" t="n">
         <v>36.46999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-100</v>
+      </c>
       <c r="L13" t="n">
         <v>36.45999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-100</v>
+      </c>
       <c r="L14" t="n">
         <v>36.44999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-100</v>
+      </c>
       <c r="L15" t="n">
         <v>36.43999999999998</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.3000000000000043</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>36.43999999999998</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>36.44999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.5000000000000071</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>36.44999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.5000000000000071</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>36.44999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.5000000000000071</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L20" t="n">
         <v>36.45999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.5000000000000071</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>36.46999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.5000000000000071</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>36.48</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.5000000000000071</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>36.48999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>0.5000000000000071</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>36.5</v>
@@ -1564,7 +1586,7 @@
         <v>0.5000000000000071</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" t="n">
         <v>36.51000000000001</v>
@@ -1612,9 +1634,7 @@
       <c r="J27" t="n">
         <v>0.5000000000000071</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>36.5</v>
       </c>
@@ -1661,9 +1681,7 @@
       <c r="J28" t="n">
         <v>0.5000000000000071</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>36.5</v>
       </c>
@@ -1710,9 +1728,7 @@
       <c r="J29" t="n">
         <v>0.5000000000000071</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>36.5</v>
       </c>
@@ -1759,9 +1775,7 @@
       <c r="J30" t="n">
         <v>0.5000000000000071</v>
       </c>
-      <c r="K30" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>36.5</v>
       </c>
@@ -1808,9 +1822,7 @@
       <c r="J31" t="n">
         <v>0.5000000000000071</v>
       </c>
-      <c r="K31" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>36.5</v>
       </c>
@@ -1859,9 +1871,7 @@
       <c r="J32" t="n">
         <v>0.5000000000000071</v>
       </c>
-      <c r="K32" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>36.5</v>
       </c>
@@ -1910,9 +1920,7 @@
       <c r="J33" t="n">
         <v>0.5000000000000071</v>
       </c>
-      <c r="K33" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>36.5</v>
       </c>
@@ -1962,7 +1970,7 @@
         <v>0.6000000000000085</v>
       </c>
       <c r="K34" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L34" t="n">
         <v>36.51000000000001</v>
@@ -2013,7 +2021,7 @@
         <v>0.7000000000000099</v>
       </c>
       <c r="K35" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>36.51000000000001</v>
@@ -2115,7 +2123,7 @@
         <v>0.7000000000000099</v>
       </c>
       <c r="K37" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>36.51000000000001</v>
@@ -2421,7 +2429,7 @@
         <v>0.7000000000000099</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L43" t="n">
         <v>36.51000000000001</v>
@@ -2472,7 +2480,7 @@
         <v>0.8000000000000114</v>
       </c>
       <c r="K44" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L44" t="n">
         <v>36.51000000000001</v>
@@ -2625,7 +2633,7 @@
         <v>1.000000000000014</v>
       </c>
       <c r="K47" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>36.52</v>
@@ -2931,7 +2939,7 @@
         <v>1.200000000000017</v>
       </c>
       <c r="K53" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>36.53000000000001</v>
@@ -2982,7 +2990,7 @@
         <v>1.300000000000018</v>
       </c>
       <c r="K54" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>36.52</v>
@@ -3084,7 +3092,7 @@
         <v>1.300000000000018</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>36.52</v>
@@ -3339,7 +3347,7 @@
         <v>1.500000000000021</v>
       </c>
       <c r="K61" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L61" t="n">
         <v>36.49</v>
@@ -3390,7 +3398,7 @@
         <v>1.700000000000024</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L62" t="n">
         <v>36.49</v>
@@ -3441,7 +3449,7 @@
         <v>1.900000000000027</v>
       </c>
       <c r="K63" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L63" t="n">
         <v>36.46</v>
@@ -3492,7 +3500,7 @@
         <v>2.200000000000031</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L64" t="n">
         <v>36.47000000000001</v>
@@ -3543,7 +3551,7 @@
         <v>2.500000000000028</v>
       </c>
       <c r="K65" t="n">
-        <v>24.99999999999967</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L65" t="n">
         <v>36.51000000000001</v>
@@ -3594,7 +3602,7 @@
         <v>2.700000000000024</v>
       </c>
       <c r="K66" t="n">
-        <v>11.1111111111112</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L66" t="n">
         <v>36.53</v>
@@ -3645,7 +3653,7 @@
         <v>2.700000000000024</v>
       </c>
       <c r="K67" t="n">
-        <v>5.88235294117652</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L67" t="n">
         <v>36.55</v>
@@ -3696,7 +3704,7 @@
         <v>2.800000000000026</v>
       </c>
       <c r="K68" t="n">
-        <v>5.88235294117652</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L68" t="n">
         <v>36.56</v>
@@ -3747,7 +3755,7 @@
         <v>2.900000000000027</v>
       </c>
       <c r="K69" t="n">
-        <v>11.1111111111112</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L69" t="n">
         <v>36.58</v>
@@ -3798,7 +3806,7 @@
         <v>3.000000000000021</v>
       </c>
       <c r="K70" t="n">
-        <v>15.78947368421033</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>36.61</v>
@@ -3849,7 +3857,7 @@
         <v>3.100000000000016</v>
       </c>
       <c r="K71" t="n">
-        <v>10.00000000000014</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L71" t="n">
         <v>36.65</v>
@@ -3900,7 +3908,7 @@
         <v>3.200000000000017</v>
       </c>
       <c r="K72" t="n">
-        <v>4.761904761904826</v>
+        <v>23.07692307692358</v>
       </c>
       <c r="L72" t="n">
         <v>36.66</v>
@@ -3951,7 +3959,7 @@
         <v>3.300000000000018</v>
       </c>
       <c r="K73" t="n">
-        <v>4.761904761904826</v>
+        <v>9.090909090909326</v>
       </c>
       <c r="L73" t="n">
         <v>36.7</v>
@@ -4002,7 +4010,7 @@
         <v>3.300000000000018</v>
       </c>
       <c r="K74" t="n">
-        <v>10.00000000000014</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L74" t="n">
         <v>36.70999999999999</v>
@@ -4053,7 +4061,7 @@
         <v>3.500000000000014</v>
       </c>
       <c r="K75" t="n">
-        <v>18.18181818181815</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L75" t="n">
         <v>36.70999999999999</v>
@@ -4104,7 +4112,7 @@
         <v>3.500000000000014</v>
       </c>
       <c r="K76" t="n">
-        <v>18.18181818181815</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L76" t="n">
         <v>36.73</v>
@@ -4155,7 +4163,7 @@
         <v>3.70000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>8.333333333333481</v>
+        <v>11.11111111111146</v>
       </c>
       <c r="L77" t="n">
         <v>36.73</v>
@@ -4206,7 +4214,7 @@
         <v>3.70000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>8.333333333333481</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>36.73999999999999</v>
@@ -4257,7 +4265,7 @@
         <v>3.70000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>8.333333333333481</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L79" t="n">
         <v>36.73999999999999</v>
@@ -4308,7 +4316,7 @@
         <v>3.800000000000004</v>
       </c>
       <c r="K80" t="n">
-        <v>11.99999999999996</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L80" t="n">
         <v>36.73999999999999</v>
@@ -4359,7 +4367,7 @@
         <v>4</v>
       </c>
       <c r="K81" t="n">
-        <v>12.00000000000027</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>36.73</v>
@@ -4410,7 +4418,7 @@
         <v>4</v>
       </c>
       <c r="K82" t="n">
-        <v>4.347826086956629</v>
+        <v>-14.28571428571487</v>
       </c>
       <c r="L82" t="n">
         <v>36.73</v>
@@ -4461,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="K83" t="n">
-        <v>14.28571428571467</v>
+        <v>-14.28571428571487</v>
       </c>
       <c r="L83" t="n">
         <v>36.72</v>
@@ -4512,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L84" t="n">
         <v>36.71</v>
@@ -4563,7 +4571,7 @@
         <v>4</v>
       </c>
       <c r="K85" t="n">
-        <v>-20.00000000000019</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L85" t="n">
         <v>36.68000000000001</v>
@@ -4614,7 +4622,7 @@
         <v>4</v>
       </c>
       <c r="K86" t="n">
-        <v>-7.692307692307944</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L86" t="n">
         <v>36.65000000000001</v>
@@ -4665,7 +4673,7 @@
         <v>4</v>
       </c>
       <c r="K87" t="n">
-        <v>-7.692307692307944</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L87" t="n">
         <v>36.64000000000001</v>
@@ -4716,7 +4724,7 @@
         <v>4</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L88" t="n">
         <v>36.63000000000002</v>
@@ -4767,7 +4775,7 @@
         <v>4</v>
       </c>
       <c r="K89" t="n">
-        <v>-9.090909090909443</v>
+        <v>-100</v>
       </c>
       <c r="L89" t="n">
         <v>36.62000000000002</v>
@@ -4818,7 +4826,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="K90" t="n">
-        <v>-9.090909090908738</v>
+        <v>100</v>
       </c>
       <c r="L90" t="n">
         <v>36.61000000000002</v>
@@ -4869,7 +4877,7 @@
         <v>4.200000000000003</v>
       </c>
       <c r="K91" t="n">
-        <v>-9.090909090909326</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>36.61000000000002</v>
@@ -4971,7 +4979,7 @@
         <v>4.200000000000003</v>
       </c>
       <c r="K93" t="n">
-        <v>-11.11111111111146</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>36.61000000000002</v>
@@ -5022,7 +5030,7 @@
         <v>4.200000000000003</v>
       </c>
       <c r="K94" t="n">
-        <v>-11.11111111111146</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>36.61000000000002</v>
@@ -5073,7 +5081,7 @@
         <v>4.200000000000003</v>
       </c>
       <c r="K95" t="n">
-        <v>-42.85714285714315</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>36.61000000000002</v>
@@ -5124,7 +5132,7 @@
         <v>4.200000000000003</v>
       </c>
       <c r="K96" t="n">
-        <v>-42.85714285714315</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>36.61000000000002</v>
@@ -5175,7 +5183,7 @@
         <v>4.300000000000004</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>36.62000000000002</v>
@@ -5226,7 +5234,7 @@
         <v>4.5</v>
       </c>
       <c r="K98" t="n">
-        <v>24.99999999999978</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L98" t="n">
         <v>36.65000000000001</v>
@@ -5277,7 +5285,7 @@
         <v>4.5</v>
       </c>
       <c r="K99" t="n">
-        <v>24.99999999999978</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L99" t="n">
         <v>36.68000000000001</v>
@@ -5328,7 +5336,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>25.00000000000044</v>
+        <v>100</v>
       </c>
       <c r="L100" t="n">
         <v>36.71000000000001</v>
@@ -5379,7 +5387,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K101" t="n">
-        <v>11.11111111111129</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L101" t="n">
         <v>36.72000000000001</v>

--- a/BackTest/2019-10-19 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-19 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S103"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -463,37 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C2" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="D2" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E2" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="F2" t="n">
-        <v>4676.2734</v>
+        <v>81.74386920000001</v>
       </c>
       <c r="G2" t="n">
-        <v>36.62333333333331</v>
+        <v>-657736.6352312199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -502,41 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C3" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D3" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E3" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F3" t="n">
-        <v>7234.0526</v>
+        <v>2800</v>
       </c>
       <c r="G3" t="n">
-        <v>36.61833333333331</v>
+        <v>-660536.6352312199</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.1000000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -545,41 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C4" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D4" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E4" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F4" t="n">
-        <v>151123.7282</v>
+        <v>130</v>
       </c>
       <c r="G4" t="n">
-        <v>36.61333333333331</v>
+        <v>-660406.6352312199</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1000000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,41 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C5" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D5" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F5" t="n">
-        <v>17282.3542</v>
+        <v>69.2076</v>
       </c>
       <c r="G5" t="n">
-        <v>36.60666666666664</v>
+        <v>-660406.6352312199</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.1000000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -643,29 +585,21 @@
         <v>36.5</v>
       </c>
       <c r="F6" t="n">
-        <v>198</v>
+        <v>1697.3021</v>
       </c>
       <c r="G6" t="n">
-        <v>36.59833333333331</v>
+        <v>-662103.9373312199</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.1000000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,41 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C7" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D7" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E7" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F7" t="n">
-        <v>180</v>
+        <v>28340.6987692</v>
       </c>
       <c r="G7" t="n">
-        <v>36.59166666666663</v>
+        <v>-633763.2385620199</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.1000000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -720,38 +646,30 @@
         <v>36.5</v>
       </c>
       <c r="C8" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D8" t="n">
         <v>36.5</v>
       </c>
       <c r="E8" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F8" t="n">
-        <v>294</v>
+        <v>10000</v>
       </c>
       <c r="G8" t="n">
-        <v>36.58499999999997</v>
+        <v>-643763.2385620199</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.1000000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,41 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C9" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D9" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E9" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F9" t="n">
-        <v>298</v>
+        <v>21327.8999</v>
       </c>
       <c r="G9" t="n">
-        <v>36.58166666666664</v>
+        <v>-643763.2385620199</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.1000000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -803,41 +713,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C10" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="D10" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E10" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="F10" t="n">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>36.57666666666664</v>
+        <v>-643753.2385620199</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>36.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>36.4</v>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -858,31 +764,29 @@
         <v>36.4</v>
       </c>
       <c r="F11" t="n">
-        <v>180</v>
+        <v>19000</v>
       </c>
       <c r="G11" t="n">
-        <v>36.57166666666664</v>
+        <v>-662753.2385620199</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>36.46999999999999</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -891,22 +795,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C12" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="D12" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E12" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="F12" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>36.56499999999998</v>
+        <v>-662743.2385620199</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -914,22 +818,16 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0.2000000000000028</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L12" t="n">
-        <v>36.46999999999999</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,22 +836,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C13" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="D13" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E13" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="F13" t="n">
-        <v>180</v>
+        <v>1004</v>
       </c>
       <c r="G13" t="n">
-        <v>36.56166666666665</v>
+        <v>-662743.2385620199</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -961,22 +859,10 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L13" t="n">
-        <v>36.45999999999999</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -985,22 +871,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C14" t="n">
         <v>36.4</v>
       </c>
       <c r="D14" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E14" t="n">
         <v>36.4</v>
       </c>
       <c r="F14" t="n">
-        <v>54</v>
+        <v>2008</v>
       </c>
       <c r="G14" t="n">
-        <v>36.55833333333332</v>
+        <v>-664751.2385620199</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1008,22 +894,10 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L14" t="n">
-        <v>36.44999999999999</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1035,19 +909,19 @@
         <v>36.4</v>
       </c>
       <c r="C15" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="D15" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E15" t="n">
         <v>36.4</v>
       </c>
       <c r="F15" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>36.55499999999999</v>
+        <v>-664731.2385620199</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1055,22 +929,10 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L15" t="n">
-        <v>36.43999999999998</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1079,45 +941,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C16" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D16" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E16" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F16" t="n">
-        <v>206</v>
+        <v>32725.6661</v>
       </c>
       <c r="G16" t="n">
-        <v>36.55333333333332</v>
+        <v>-664731.2385620199</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>36.43999999999998</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,7 +976,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C17" t="n">
         <v>36.6</v>
@@ -1135,36 +985,24 @@
         <v>36.6</v>
       </c>
       <c r="E17" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F17" t="n">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="G17" t="n">
-        <v>36.55499999999999</v>
+        <v>-664731.2385620199</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="K17" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L17" t="n">
-        <v>36.44999999999999</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,45 +1011,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C18" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D18" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E18" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F18" t="n">
-        <v>1815.896</v>
+        <v>21.9536</v>
       </c>
       <c r="G18" t="n">
-        <v>36.55499999999999</v>
+        <v>-664709.2849620199</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5000000000000071</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>36.44999999999999</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,45 +1046,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C19" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D19" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E19" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F19" t="n">
-        <v>157</v>
+        <v>26989.3339</v>
       </c>
       <c r="G19" t="n">
-        <v>36.55499999999999</v>
+        <v>-691698.6188620199</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5000000000000071</v>
-      </c>
-      <c r="K19" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L19" t="n">
-        <v>36.44999999999999</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1267,45 +1081,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C20" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="D20" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="E20" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F20" t="n">
-        <v>358</v>
+        <v>151571.5745232</v>
       </c>
       <c r="G20" t="n">
-        <v>36.55166666666666</v>
+        <v>-540127.0443388198</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5000000000000071</v>
-      </c>
-      <c r="K20" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L20" t="n">
-        <v>36.45999999999999</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,47 +1116,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C21" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D21" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E21" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F21" t="n">
-        <v>6277.4156</v>
+        <v>933.7949</v>
       </c>
       <c r="G21" t="n">
-        <v>36.55333333333332</v>
+        <v>-541060.8392388198</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5000000000000071</v>
-      </c>
-      <c r="K21" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L21" t="n">
-        <v>36.46999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>36.46999999999999</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,47 +1151,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C22" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D22" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E22" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F22" t="n">
-        <v>1532.658</v>
+        <v>49.875</v>
       </c>
       <c r="G22" t="n">
-        <v>36.55666666666665</v>
+        <v>-541110.7142388198</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5000000000000071</v>
-      </c>
-      <c r="K22" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L22" t="n">
-        <v>36.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>36.47499999999999</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1412,47 +1186,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C23" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D23" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E23" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F23" t="n">
-        <v>181.896</v>
+        <v>79835.58289999999</v>
       </c>
       <c r="G23" t="n">
-        <v>36.55999999999998</v>
+        <v>-461275.1313388198</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5000000000000071</v>
-      </c>
-      <c r="K23" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L23" t="n">
-        <v>36.48999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>36.47499999999999</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1461,47 +1221,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C24" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="D24" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="E24" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F24" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="G24" t="n">
-        <v>36.56166666666665</v>
+        <v>-461160.1313388198</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5000000000000071</v>
-      </c>
-      <c r="K24" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L24" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>36.47499999999999</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,47 +1256,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C25" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D25" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E25" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F25" t="n">
-        <v>72</v>
+        <v>38000</v>
       </c>
       <c r="G25" t="n">
-        <v>36.56166666666665</v>
+        <v>-499160.1313388198</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5000000000000071</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>36.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>36.47499999999999</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1559,47 +1291,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="C26" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="D26" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="E26" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>161.3279</v>
       </c>
       <c r="G26" t="n">
-        <v>36.56333333333331</v>
+        <v>-498998.8034388198</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5000000000000071</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L26" t="n">
-        <v>36.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>36.47499999999999</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1608,45 +1326,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="C27" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="D27" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="E27" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="F27" t="n">
-        <v>141</v>
+        <v>84.2547</v>
       </c>
       <c r="G27" t="n">
-        <v>36.56166666666665</v>
+        <v>-498998.8034388198</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5000000000000071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>36.47499999999999</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1655,45 +1361,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="C28" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="D28" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="E28" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="F28" t="n">
-        <v>18</v>
+        <v>4388.943</v>
       </c>
       <c r="G28" t="n">
-        <v>36.55666666666664</v>
+        <v>-498998.8034388198</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5000000000000071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>36.47499999999999</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1702,45 +1396,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C29" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D29" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E29" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F29" t="n">
-        <v>54</v>
+        <v>7356.9482</v>
       </c>
       <c r="G29" t="n">
-        <v>36.55166666666664</v>
+        <v>-506355.7516388198</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5000000000000071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>36.47499999999999</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1749,45 +1431,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C30" t="n">
         <v>36.5</v>
       </c>
       <c r="D30" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E30" t="n">
         <v>36.5</v>
       </c>
       <c r="F30" t="n">
-        <v>18</v>
+        <v>20000</v>
       </c>
       <c r="G30" t="n">
-        <v>36.55499999999997</v>
+        <v>-526355.7516388198</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5000000000000071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>36.48</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1808,35 +1478,21 @@
         <v>36.5</v>
       </c>
       <c r="F31" t="n">
-        <v>36</v>
+        <v>19010.3556</v>
       </c>
       <c r="G31" t="n">
-        <v>36.55166666666664</v>
+        <v>-526355.7516388198</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5000000000000071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>36.485</v>
-      </c>
-      <c r="N31" t="n">
-        <v>36.48</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,44 +1504,30 @@
         <v>36.5</v>
       </c>
       <c r="C32" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D32" t="n">
         <v>36.5</v>
       </c>
       <c r="E32" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F32" t="n">
-        <v>18</v>
+        <v>4676.2734</v>
       </c>
       <c r="G32" t="n">
-        <v>36.54833333333331</v>
+        <v>-531032.0250388198</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5000000000000071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>36.48999999999999</v>
-      </c>
-      <c r="N32" t="n">
-        <v>36.48333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1906,35 +1548,21 @@
         <v>36.5</v>
       </c>
       <c r="F33" t="n">
-        <v>7698.4685</v>
+        <v>7234.0526</v>
       </c>
       <c r="G33" t="n">
-        <v>36.54999999999998</v>
+        <v>-523797.9724388198</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5000000000000071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>36.495</v>
-      </c>
-      <c r="N33" t="n">
-        <v>36.48333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1946,46 +1574,30 @@
         <v>36.5</v>
       </c>
       <c r="C34" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D34" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E34" t="n">
         <v>36.5</v>
       </c>
       <c r="F34" t="n">
-        <v>130</v>
+        <v>151123.7282</v>
       </c>
       <c r="G34" t="n">
-        <v>36.54999999999998</v>
+        <v>-523797.9724388198</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="K34" t="n">
-        <v>100</v>
-      </c>
-      <c r="L34" t="n">
-        <v>36.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>36.505</v>
-      </c>
-      <c r="N34" t="n">
-        <v>36.48666666666666</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,37 +1618,21 @@
         <v>36.5</v>
       </c>
       <c r="F35" t="n">
-        <v>54</v>
+        <v>17282.3542</v>
       </c>
       <c r="G35" t="n">
-        <v>36.54833333333331</v>
+        <v>-523797.9724388198</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.7000000000000099</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>36.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>36.51000000000001</v>
-      </c>
-      <c r="N35" t="n">
-        <v>36.48666666666666</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2057,37 +1653,21 @@
         <v>36.5</v>
       </c>
       <c r="F36" t="n">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="G36" t="n">
-        <v>36.54833333333331</v>
+        <v>-523797.9724388198</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.7000000000000099</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>36.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>36.51000000000001</v>
-      </c>
-      <c r="N36" t="n">
-        <v>36.48666666666666</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2102,43 +1682,27 @@
         <v>36.5</v>
       </c>
       <c r="D37" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E37" t="n">
         <v>36.5</v>
       </c>
       <c r="F37" t="n">
-        <v>655.3225</v>
+        <v>180</v>
       </c>
       <c r="G37" t="n">
-        <v>36.54499999999998</v>
+        <v>-523797.9724388198</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.7000000000000099</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>36.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>36.505</v>
-      </c>
-      <c r="N37" t="n">
-        <v>36.48666666666666</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2159,37 +1723,21 @@
         <v>36.5</v>
       </c>
       <c r="F38" t="n">
-        <v>55</v>
+        <v>294</v>
       </c>
       <c r="G38" t="n">
-        <v>36.54666666666665</v>
+        <v>-523797.9724388198</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.7000000000000099</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>36.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>36.505</v>
-      </c>
-      <c r="N38" t="n">
-        <v>36.48666666666666</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2210,37 +1758,21 @@
         <v>36.5</v>
       </c>
       <c r="F39" t="n">
-        <v>131</v>
+        <v>298</v>
       </c>
       <c r="G39" t="n">
-        <v>36.54833333333331</v>
+        <v>-523797.9724388198</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.7000000000000099</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>36.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>36.505</v>
-      </c>
-      <c r="N39" t="n">
-        <v>36.48666666666666</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2252,46 +1784,30 @@
         <v>36.5</v>
       </c>
       <c r="C40" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D40" t="n">
         <v>36.5</v>
       </c>
       <c r="E40" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F40" t="n">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="G40" t="n">
-        <v>36.54666666666665</v>
+        <v>-523923.9724388198</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.7000000000000099</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>36.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>36.505</v>
-      </c>
-      <c r="N40" t="n">
-        <v>36.48999999999999</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,49 +1816,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C41" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D41" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E41" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F41" t="n">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="G41" t="n">
-        <v>36.54833333333331</v>
+        <v>-523923.9724388198</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.7000000000000099</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>36.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>36.505</v>
-      </c>
-      <c r="N41" t="n">
-        <v>36.49333333333332</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2351,49 +1851,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C42" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D42" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E42" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F42" t="n">
-        <v>335.667</v>
+        <v>90</v>
       </c>
       <c r="G42" t="n">
-        <v>36.54666666666665</v>
+        <v>-523923.9724388198</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.7000000000000099</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>36.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>36.505</v>
-      </c>
-      <c r="N42" t="n">
-        <v>36.49666666666665</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2402,49 +1886,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C43" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D43" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E43" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F43" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G43" t="n">
-        <v>36.54499999999998</v>
+        <v>-523923.9724388198</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.7000000000000099</v>
+        <v>36.4</v>
       </c>
       <c r="K43" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L43" t="n">
-        <v>36.51000000000001</v>
-      </c>
+        <v>36.4</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>36.505</v>
-      </c>
-      <c r="N43" t="n">
-        <v>36.49999999999998</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2453,49 +1925,41 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C44" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="D44" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="E44" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F44" t="n">
-        <v>13438.63</v>
+        <v>54</v>
       </c>
       <c r="G44" t="n">
-        <v>36.54833333333331</v>
+        <v>-523923.9724388198</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.8000000000000114</v>
+        <v>36.4</v>
       </c>
       <c r="K44" t="n">
-        <v>100</v>
-      </c>
-      <c r="L44" t="n">
-        <v>36.51000000000001</v>
+        <v>36.4</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>36.51000000000001</v>
-      </c>
-      <c r="N44" t="n">
-        <v>36.50666666666664</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2504,49 +1968,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C45" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D45" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E45" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F45" t="n">
-        <v>561.968</v>
+        <v>36</v>
       </c>
       <c r="G45" t="n">
-        <v>36.54666666666665</v>
+        <v>-523923.9724388198</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.9000000000000128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>36.51000000000001</v>
+        <v>36.4</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>36.51000000000001</v>
-      </c>
-      <c r="N45" t="n">
-        <v>36.50999999999997</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2567,37 +2021,21 @@
         <v>36.5</v>
       </c>
       <c r="F46" t="n">
-        <v>33291.3575</v>
+        <v>206</v>
       </c>
       <c r="G46" t="n">
-        <v>36.54499999999998</v>
+        <v>-523717.9724388198</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.9000000000000128</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>36.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>36.51000000000001</v>
-      </c>
-      <c r="N46" t="n">
-        <v>36.50999999999997</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2606,7 +2044,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C47" t="n">
         <v>36.6</v>
@@ -2615,40 +2053,24 @@
         <v>36.6</v>
       </c>
       <c r="E47" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
-        <v>36.54499999999998</v>
+        <v>-523627.9724388198</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.000000000000014</v>
-      </c>
-      <c r="K47" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L47" t="n">
-        <v>36.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>36.515</v>
-      </c>
-      <c r="N47" t="n">
-        <v>36.50999999999997</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,37 +2091,21 @@
         <v>36.5</v>
       </c>
       <c r="F48" t="n">
-        <v>54</v>
+        <v>1815.896</v>
       </c>
       <c r="G48" t="n">
-        <v>36.54166666666665</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.100000000000016</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>36.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>36.515</v>
-      </c>
-      <c r="N48" t="n">
-        <v>36.50999999999997</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2720,37 +2126,25 @@
         <v>36.5</v>
       </c>
       <c r="F49" t="n">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="G49" t="n">
-        <v>36.53999999999998</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.100000000000016</v>
+        <v>36.5</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>36.52</v>
-      </c>
+        <v>36.5</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>36.515</v>
-      </c>
-      <c r="N49" t="n">
-        <v>36.50999999999997</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2771,37 +2165,29 @@
         <v>36.5</v>
       </c>
       <c r="F50" t="n">
-        <v>36</v>
+        <v>358</v>
       </c>
       <c r="G50" t="n">
-        <v>36.53499999999998</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.100000000000016</v>
+        <v>36.5</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>36.52</v>
+        <v>36.5</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>36.515</v>
-      </c>
-      <c r="N50" t="n">
-        <v>36.50999999999997</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2822,37 +2208,27 @@
         <v>36.5</v>
       </c>
       <c r="F51" t="n">
-        <v>36</v>
+        <v>6277.4156</v>
       </c>
       <c r="G51" t="n">
-        <v>36.53166666666665</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.100000000000016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>36.52</v>
+        <v>36.5</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>36.515</v>
-      </c>
-      <c r="N51" t="n">
-        <v>36.50999999999997</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2873,37 +2249,21 @@
         <v>36.5</v>
       </c>
       <c r="F52" t="n">
-        <v>19534.5144</v>
+        <v>1532.658</v>
       </c>
       <c r="G52" t="n">
-        <v>36.52999999999999</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.100000000000016</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>36.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>36.515</v>
-      </c>
-      <c r="N52" t="n">
-        <v>36.50999999999997</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2912,49 +2272,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C53" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D53" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E53" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F53" t="n">
-        <v>6261.4309</v>
+        <v>181.896</v>
       </c>
       <c r="G53" t="n">
-        <v>36.52833333333332</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.200000000000017</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>36.53000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>36.52</v>
-      </c>
-      <c r="N53" t="n">
-        <v>36.5133333333333</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2963,13 +2307,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C54" t="n">
         <v>36.5</v>
       </c>
       <c r="D54" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E54" t="n">
         <v>36.5</v>
@@ -2978,34 +2322,18 @@
         <v>90</v>
       </c>
       <c r="G54" t="n">
-        <v>36.52333333333332</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.300000000000018</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>36.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>36.515</v>
-      </c>
-      <c r="N54" t="n">
-        <v>36.5133333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3026,37 +2354,21 @@
         <v>36.5</v>
       </c>
       <c r="F55" t="n">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="G55" t="n">
-        <v>36.51999999999999</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.300000000000018</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>36.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>36.515</v>
-      </c>
-      <c r="N55" t="n">
-        <v>36.5133333333333</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3065,49 +2377,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C56" t="n">
         <v>36.5</v>
       </c>
       <c r="D56" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E56" t="n">
         <v>36.5</v>
       </c>
       <c r="F56" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G56" t="n">
-        <v>36.51333333333332</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1.300000000000018</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L56" t="n">
-        <v>36.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>36.515</v>
-      </c>
-      <c r="N56" t="n">
-        <v>36.5133333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3116,49 +2412,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C57" t="n">
         <v>36.5</v>
       </c>
       <c r="D57" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E57" t="n">
         <v>36.5</v>
       </c>
       <c r="F57" t="n">
-        <v>222.968</v>
+        <v>141</v>
       </c>
       <c r="G57" t="n">
-        <v>36.50666666666665</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.300000000000018</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>36.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>36.515</v>
-      </c>
-      <c r="N57" t="n">
-        <v>36.5133333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3179,37 +2459,21 @@
         <v>36.5</v>
       </c>
       <c r="F58" t="n">
-        <v>2735.8262</v>
+        <v>18</v>
       </c>
       <c r="G58" t="n">
-        <v>36.49999999999999</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1.300000000000018</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>36.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>36.515</v>
-      </c>
-      <c r="N58" t="n">
-        <v>36.5133333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,37 +2494,21 @@
         <v>36.5</v>
       </c>
       <c r="F59" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G59" t="n">
-        <v>36.49666666666666</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.300000000000018</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>36.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>36.515</v>
-      </c>
-      <c r="N59" t="n">
-        <v>36.5133333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3281,37 +2529,21 @@
         <v>36.5</v>
       </c>
       <c r="F60" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G60" t="n">
-        <v>36.49666666666666</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1.300000000000018</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>36.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>36.515</v>
-      </c>
-      <c r="N60" t="n">
-        <v>36.5133333333333</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3323,46 +2555,30 @@
         <v>36.5</v>
       </c>
       <c r="C61" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="D61" t="n">
         <v>36.5</v>
       </c>
       <c r="E61" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="F61" t="n">
-        <v>30085.9845</v>
+        <v>36</v>
       </c>
       <c r="G61" t="n">
-        <v>36.49333333333333</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1.500000000000021</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L61" t="n">
-        <v>36.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>36.505</v>
-      </c>
-      <c r="N61" t="n">
-        <v>36.50666666666663</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3383,37 +2599,21 @@
         <v>36.5</v>
       </c>
       <c r="F62" t="n">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="G62" t="n">
-        <v>36.49499999999999</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1.700000000000024</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L62" t="n">
-        <v>36.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>36.505</v>
-      </c>
-      <c r="N62" t="n">
-        <v>36.50666666666663</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3425,46 +2625,30 @@
         <v>36.5</v>
       </c>
       <c r="C63" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="D63" t="n">
         <v>36.5</v>
       </c>
       <c r="E63" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="F63" t="n">
-        <v>7338.5558</v>
+        <v>7698.4685</v>
       </c>
       <c r="G63" t="n">
-        <v>36.49166666666666</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1.900000000000027</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L63" t="n">
-        <v>36.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>36.495</v>
-      </c>
-      <c r="N63" t="n">
-        <v>36.49999999999996</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3473,7 +2657,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C64" t="n">
         <v>36.6</v>
@@ -3482,40 +2666,24 @@
         <v>36.6</v>
       </c>
       <c r="E64" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G64" t="n">
-        <v>36.49333333333333</v>
+        <v>-525313.8684388198</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2.200000000000031</v>
-      </c>
-      <c r="K64" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L64" t="n">
-        <v>36.47000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>36.495</v>
-      </c>
-      <c r="N64" t="n">
-        <v>36.49999999999996</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3524,49 +2692,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C65" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="D65" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="E65" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F65" t="n">
-        <v>135386.14315691</v>
+        <v>54</v>
       </c>
       <c r="G65" t="n">
-        <v>36.49999999999999</v>
+        <v>-525367.8684388198</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2.500000000000028</v>
-      </c>
-      <c r="K65" t="n">
-        <v>33.33333333333294</v>
-      </c>
-      <c r="L65" t="n">
-        <v>36.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>36.515</v>
-      </c>
-      <c r="N65" t="n">
-        <v>36.5133333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3575,49 +2727,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C66" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D66" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E66" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F66" t="n">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="G66" t="n">
-        <v>36.50333333333332</v>
+        <v>-525367.8684388198</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2.700000000000024</v>
-      </c>
-      <c r="K66" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L66" t="n">
-        <v>36.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>36.525</v>
-      </c>
-      <c r="N66" t="n">
-        <v>36.51999999999997</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3626,49 +2762,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C67" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D67" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="E67" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F67" t="n">
-        <v>36</v>
+        <v>655.3225</v>
       </c>
       <c r="G67" t="n">
-        <v>36.50666666666665</v>
+        <v>-525367.8684388198</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="J67" t="n">
-        <v>2.700000000000024</v>
-      </c>
-      <c r="K67" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L67" t="n">
-        <v>36.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>36.53</v>
-      </c>
-      <c r="N67" t="n">
-        <v>36.52666666666664</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3677,49 +2797,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C68" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D68" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E68" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F68" t="n">
-        <v>4614.7414</v>
+        <v>55</v>
       </c>
       <c r="G68" t="n">
-        <v>36.50833333333332</v>
+        <v>-525367.8684388198</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2.800000000000026</v>
-      </c>
-      <c r="K68" t="n">
-        <v>6.66666666666673</v>
-      </c>
-      <c r="L68" t="n">
-        <v>36.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>36.535</v>
-      </c>
-      <c r="N68" t="n">
-        <v>36.52999999999997</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3728,49 +2832,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C69" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D69" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E69" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F69" t="n">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="G69" t="n">
-        <v>36.51166666666665</v>
+        <v>-525367.8684388198</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2.900000000000027</v>
-      </c>
-      <c r="K69" t="n">
-        <v>12.50000000000011</v>
-      </c>
-      <c r="L69" t="n">
-        <v>36.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>36.545</v>
-      </c>
-      <c r="N69" t="n">
-        <v>36.53666666666663</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3779,49 +2867,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="C70" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="D70" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="E70" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="F70" t="n">
-        <v>54.1847826</v>
+        <v>72</v>
       </c>
       <c r="G70" t="n">
-        <v>36.51833333333332</v>
+        <v>-525367.8684388198</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3.000000000000021</v>
-      </c>
-      <c r="K70" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L70" t="n">
-        <v>36.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>36.56</v>
-      </c>
-      <c r="N70" t="n">
-        <v>36.54666666666663</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3830,49 +2902,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="C71" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D71" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="E71" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F71" t="n">
-        <v>4766.5566174</v>
+        <v>291</v>
       </c>
       <c r="G71" t="n">
-        <v>36.52333333333331</v>
+        <v>-525367.8684388198</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3.100000000000016</v>
-      </c>
-      <c r="K71" t="n">
-        <v>14.28571428571458</v>
-      </c>
-      <c r="L71" t="n">
-        <v>36.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>36.57000000000001</v>
-      </c>
-      <c r="N71" t="n">
-        <v>36.5533333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3881,49 +2937,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C72" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D72" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E72" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F72" t="n">
-        <v>18</v>
+        <v>335.667</v>
       </c>
       <c r="G72" t="n">
-        <v>36.52666666666664</v>
+        <v>-525367.8684388198</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3.200000000000017</v>
-      </c>
-      <c r="K72" t="n">
-        <v>23.07692307692358</v>
-      </c>
-      <c r="L72" t="n">
-        <v>36.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>36.575</v>
-      </c>
-      <c r="N72" t="n">
-        <v>36.55666666666663</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3932,49 +2972,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C73" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D73" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E73" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F73" t="n">
         <v>90</v>
       </c>
       <c r="G73" t="n">
-        <v>36.53166666666664</v>
+        <v>-525367.8684388198</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3.300000000000018</v>
-      </c>
-      <c r="K73" t="n">
-        <v>9.090909090909326</v>
-      </c>
-      <c r="L73" t="n">
-        <v>36.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>36.58000000000001</v>
-      </c>
-      <c r="N73" t="n">
-        <v>36.5633333333333</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,49 +3007,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C74" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="D74" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="E74" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F74" t="n">
-        <v>4467.673</v>
+        <v>13438.63</v>
       </c>
       <c r="G74" t="n">
-        <v>36.53666666666663</v>
+        <v>-511929.2384388198</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="J74" t="n">
-        <v>3.300000000000018</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-24.99999999999978</v>
-      </c>
-      <c r="L74" t="n">
-        <v>36.70999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>36.59000000000001</v>
-      </c>
-      <c r="N74" t="n">
-        <v>36.56666666666663</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,49 +3042,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="C75" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="D75" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="E75" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="F75" t="n">
-        <v>28031.82264309</v>
+        <v>561.968</v>
       </c>
       <c r="G75" t="n">
-        <v>36.54499999999997</v>
+        <v>-512491.2064388198</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J75" t="n">
-        <v>3.500000000000014</v>
-      </c>
-      <c r="K75" t="n">
-        <v>24.99999999999978</v>
-      </c>
-      <c r="L75" t="n">
-        <v>36.70999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>36.61000000000001</v>
-      </c>
-      <c r="N75" t="n">
-        <v>36.57999999999997</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4085,49 +3077,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="C76" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="D76" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="E76" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="F76" t="n">
-        <v>1968.17735691</v>
+        <v>33291.3575</v>
       </c>
       <c r="G76" t="n">
-        <v>36.55166666666663</v>
+        <v>-512491.2064388198</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3.500000000000014</v>
-      </c>
-      <c r="K76" t="n">
-        <v>24.99999999999978</v>
-      </c>
-      <c r="L76" t="n">
-        <v>36.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>36.63000000000001</v>
-      </c>
-      <c r="N76" t="n">
-        <v>36.59333333333331</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4136,49 +3112,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="C77" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="D77" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="E77" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="F77" t="n">
-        <v>907.8129</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>36.5533333333333</v>
+        <v>-512481.2064388198</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="J77" t="n">
-        <v>3.70000000000001</v>
-      </c>
-      <c r="K77" t="n">
-        <v>11.11111111111146</v>
-      </c>
-      <c r="L77" t="n">
-        <v>36.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>36.64000000000001</v>
-      </c>
-      <c r="N77" t="n">
-        <v>36.59666666666665</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4187,49 +3147,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C78" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D78" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E78" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F78" t="n">
-        <v>5000</v>
+        <v>54</v>
       </c>
       <c r="G78" t="n">
-        <v>36.55666666666663</v>
+        <v>-512535.2064388198</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3.70000000000001</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>36.73999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>36.65000000000001</v>
-      </c>
-      <c r="N78" t="n">
-        <v>36.60333333333332</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,49 +3182,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C79" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D79" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E79" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F79" t="n">
-        <v>400</v>
+        <v>36</v>
       </c>
       <c r="G79" t="n">
-        <v>36.55999999999996</v>
+        <v>-512535.2064388198</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3.70000000000001</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-14.28571428571371</v>
-      </c>
-      <c r="L79" t="n">
-        <v>36.73999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>36.66000000000001</v>
-      </c>
-      <c r="N79" t="n">
-        <v>36.60999999999999</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4289,49 +3217,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="C80" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="D80" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="E80" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G80" t="n">
-        <v>36.56499999999996</v>
+        <v>-512535.2064388198</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J80" t="n">
-        <v>3.800000000000004</v>
-      </c>
-      <c r="K80" t="n">
-        <v>14.28571428571371</v>
-      </c>
-      <c r="L80" t="n">
-        <v>36.73999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>36.67500000000001</v>
-      </c>
-      <c r="N80" t="n">
-        <v>36.61999999999998</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4340,49 +3252,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C81" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D81" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E81" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F81" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G81" t="n">
-        <v>36.56666666666663</v>
+        <v>-512535.2064388198</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J81" t="n">
-        <v>4</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>36.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>36.69000000000001</v>
-      </c>
-      <c r="N81" t="n">
-        <v>36.62333333333331</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4391,49 +3287,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C82" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D82" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E82" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F82" t="n">
-        <v>72</v>
+        <v>19534.5144</v>
       </c>
       <c r="G82" t="n">
-        <v>36.56833333333329</v>
+        <v>-512535.2064388198</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J82" t="n">
-        <v>4</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-14.28571428571487</v>
-      </c>
-      <c r="L82" t="n">
-        <v>36.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>36.69500000000001</v>
-      </c>
-      <c r="N82" t="n">
-        <v>36.62666666666664</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,37 +3334,21 @@
         <v>36.6</v>
       </c>
       <c r="F83" t="n">
-        <v>126</v>
+        <v>6261.4309</v>
       </c>
       <c r="G83" t="n">
-        <v>36.56999999999996</v>
+        <v>-506273.7755388198</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J83" t="n">
-        <v>4</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-14.28571428571487</v>
-      </c>
-      <c r="L83" t="n">
-        <v>36.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>36.71000000000002</v>
-      </c>
-      <c r="N83" t="n">
-        <v>36.62666666666664</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4496,46 +3360,30 @@
         <v>36.6</v>
       </c>
       <c r="C84" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D84" t="n">
         <v>36.6</v>
       </c>
       <c r="E84" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F84" t="n">
         <v>90</v>
       </c>
       <c r="G84" t="n">
-        <v>36.57166666666662</v>
+        <v>-506363.7755388198</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J84" t="n">
-        <v>4</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-60.00000000000114</v>
-      </c>
-      <c r="L84" t="n">
-        <v>36.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>36.71000000000002</v>
-      </c>
-      <c r="N84" t="n">
-        <v>36.62999999999997</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4544,49 +3392,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C85" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D85" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E85" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F85" t="n">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="G85" t="n">
-        <v>36.57333333333329</v>
+        <v>-506363.7755388198</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J85" t="n">
-        <v>4</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-60.00000000000114</v>
-      </c>
-      <c r="L85" t="n">
-        <v>36.68000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>36.69500000000002</v>
-      </c>
-      <c r="N85" t="n">
-        <v>36.6333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,46 +3430,30 @@
         <v>36.6</v>
       </c>
       <c r="C86" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D86" t="n">
         <v>36.6</v>
       </c>
       <c r="E86" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F86" t="n">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="G86" t="n">
-        <v>36.57499999999995</v>
+        <v>-506363.7755388198</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J86" t="n">
-        <v>4</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-33.33333333333491</v>
-      </c>
-      <c r="L86" t="n">
-        <v>36.65000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>36.69000000000002</v>
-      </c>
-      <c r="N86" t="n">
-        <v>36.63666666666663</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4649,46 +3465,30 @@
         <v>36.6</v>
       </c>
       <c r="C87" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D87" t="n">
         <v>36.6</v>
       </c>
       <c r="E87" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F87" t="n">
-        <v>126</v>
+        <v>222.968</v>
       </c>
       <c r="G87" t="n">
-        <v>36.57666666666662</v>
+        <v>-506363.7755388198</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J87" t="n">
-        <v>4</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-33.33333333333491</v>
-      </c>
-      <c r="L87" t="n">
-        <v>36.64000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>36.68500000000002</v>
-      </c>
-      <c r="N87" t="n">
-        <v>36.63999999999997</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4697,49 +3497,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C88" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D88" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E88" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F88" t="n">
-        <v>36</v>
+        <v>2735.8262</v>
       </c>
       <c r="G88" t="n">
-        <v>36.57833333333328</v>
+        <v>-506363.7755388198</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J88" t="n">
-        <v>4</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-33.33333333333491</v>
-      </c>
-      <c r="L88" t="n">
-        <v>36.63000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>36.68500000000002</v>
-      </c>
-      <c r="N88" t="n">
-        <v>36.6433333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4748,49 +3532,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C89" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D89" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E89" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F89" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="G89" t="n">
-        <v>36.57999999999995</v>
+        <v>-506363.7755388198</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J89" t="n">
-        <v>4</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L89" t="n">
-        <v>36.62000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>36.68000000000002</v>
-      </c>
-      <c r="N89" t="n">
-        <v>36.64666666666663</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4799,49 +3567,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C90" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D90" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E90" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F90" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G90" t="n">
-        <v>36.58333333333328</v>
+        <v>-506363.7755388198</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="J90" t="n">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="K90" t="n">
-        <v>100</v>
-      </c>
-      <c r="L90" t="n">
-        <v>36.61000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>36.67500000000003</v>
-      </c>
-      <c r="N90" t="n">
-        <v>36.65333333333329</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4850,49 +3602,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C91" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="D91" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E91" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="F91" t="n">
-        <v>54</v>
+        <v>30085.9845</v>
       </c>
       <c r="G91" t="n">
-        <v>36.58499999999994</v>
+        <v>-536449.7600388197</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J91" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>36.61000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>36.67000000000002</v>
-      </c>
-      <c r="N91" t="n">
-        <v>36.66333333333329</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4901,49 +3637,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C92" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D92" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="E92" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F92" t="n">
-        <v>7515.3569</v>
+        <v>188</v>
       </c>
       <c r="G92" t="n">
-        <v>36.58666666666661</v>
+        <v>-536261.7600388197</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J92" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>36.61000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>36.67000000000002</v>
-      </c>
-      <c r="N92" t="n">
-        <v>36.66666666666662</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4952,49 +3672,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C93" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="D93" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E93" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="F93" t="n">
-        <v>18</v>
+        <v>7338.5558</v>
       </c>
       <c r="G93" t="n">
-        <v>36.58833333333327</v>
+        <v>-543600.3158388197</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J93" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>36.61000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>36.66500000000002</v>
-      </c>
-      <c r="N93" t="n">
-        <v>36.67666666666662</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5015,37 +3719,21 @@
         <v>36.6</v>
       </c>
       <c r="F94" t="n">
-        <v>225.8885</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>36.58833333333327</v>
+        <v>-543590.3158388197</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J94" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>36.61000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>36.66000000000002</v>
-      </c>
-      <c r="N94" t="n">
-        <v>36.67666666666662</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5057,46 +3745,30 @@
         <v>36.6</v>
       </c>
       <c r="C95" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="D95" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="E95" t="n">
         <v>36.6</v>
       </c>
       <c r="F95" t="n">
-        <v>54</v>
+        <v>135386.14315691</v>
       </c>
       <c r="G95" t="n">
-        <v>36.58999999999994</v>
+        <v>-408204.1726819098</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J95" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>36.61000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>36.64500000000002</v>
-      </c>
-      <c r="N95" t="n">
-        <v>36.66666666666661</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5105,49 +3777,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="C96" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="D96" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="E96" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="F96" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G96" t="n">
-        <v>36.5916666666666</v>
+        <v>-408240.1726819098</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J96" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>36.61000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>36.63000000000002</v>
-      </c>
-      <c r="N96" t="n">
-        <v>36.66333333333328</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5168,37 +3824,21 @@
         <v>36.7</v>
       </c>
       <c r="F97" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G97" t="n">
-        <v>36.59499999999993</v>
+        <v>-408240.1726819098</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="J97" t="n">
-        <v>4.300000000000004</v>
-      </c>
-      <c r="K97" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L97" t="n">
-        <v>36.62000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>36.63000000000002</v>
-      </c>
-      <c r="N97" t="n">
-        <v>36.66333333333328</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5207,49 +3847,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="C98" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="D98" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="E98" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="F98" t="n">
-        <v>16745.5675</v>
+        <v>4614.7414</v>
       </c>
       <c r="G98" t="n">
-        <v>36.6016666666666</v>
+        <v>-412854.9140819098</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K98" t="n">
-        <v>59.99999999999943</v>
-      </c>
-      <c r="L98" t="n">
-        <v>36.65000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>36.64000000000002</v>
-      </c>
-      <c r="N98" t="n">
-        <v>36.67333333333328</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5258,49 +3882,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="C99" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="D99" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="E99" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="F99" t="n">
-        <v>25.2574</v>
+        <v>18</v>
       </c>
       <c r="G99" t="n">
-        <v>36.60833333333327</v>
+        <v>-412836.9140819098</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J99" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K99" t="n">
-        <v>49.99999999999911</v>
-      </c>
-      <c r="L99" t="n">
-        <v>36.68000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>36.65000000000002</v>
-      </c>
-      <c r="N99" t="n">
-        <v>36.67999999999995</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5309,49 +3917,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="C100" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="D100" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="E100" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="F100" t="n">
-        <v>50228.4054</v>
+        <v>54.1847826</v>
       </c>
       <c r="G100" t="n">
-        <v>36.6166666666666</v>
+        <v>-412782.7292993098</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J100" t="n">
-        <v>4.600000000000001</v>
-      </c>
-      <c r="K100" t="n">
-        <v>100</v>
-      </c>
-      <c r="L100" t="n">
-        <v>36.71000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>36.66000000000002</v>
-      </c>
-      <c r="N100" t="n">
-        <v>36.68666666666662</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5360,49 +3952,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="C101" t="n">
         <v>36.7</v>
       </c>
       <c r="D101" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="E101" t="n">
         <v>36.7</v>
       </c>
       <c r="F101" t="n">
-        <v>15</v>
+        <v>4766.5566174</v>
       </c>
       <c r="G101" t="n">
-        <v>36.61999999999993</v>
+        <v>-417549.2859167098</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="J101" t="n">
-        <v>4.899999999999999</v>
-      </c>
-      <c r="K101" t="n">
-        <v>14.28571428571458</v>
-      </c>
-      <c r="L101" t="n">
-        <v>36.72000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>36.66500000000002</v>
-      </c>
-      <c r="N101" t="n">
-        <v>36.68666666666662</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5423,37 +3999,21 @@
         <v>36.6</v>
       </c>
       <c r="F102" t="n">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="G102" t="n">
-        <v>36.6216666666666</v>
+        <v>-417567.2859167098</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J102" t="n">
-        <v>5</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>36.72000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>36.66500000000002</v>
-      </c>
-      <c r="N102" t="n">
-        <v>36.68666666666662</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5462,49 +4022,698 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="C103" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="D103" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="E103" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="F103" t="n">
+        <v>90</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-417477.2859167098</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C104" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D104" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E104" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4467.673</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-417477.2859167098</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C105" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="D105" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="E105" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="F105" t="n">
+        <v>28031.82264309</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-389445.4632736198</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="C106" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="D106" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="E106" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1968.17735691</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-389445.4632736198</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C107" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D107" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E107" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F107" t="n">
+        <v>907.8129</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-390353.2761736198</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C108" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D108" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E108" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-390353.2761736198</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C109" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D109" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E109" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F109" t="n">
+        <v>400</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-390353.2761736198</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C110" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="D110" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E110" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="F110" t="n">
+        <v>10</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-390343.2761736198</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C111" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D111" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E111" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F111" t="n">
         <v>18</v>
       </c>
-      <c r="G103" t="n">
-        <v>36.62333333333326</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J103" t="n">
-        <v>5</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>36.72000000000001</v>
-      </c>
-      <c r="M103" t="n">
-        <v>36.66500000000002</v>
-      </c>
-      <c r="N103" t="n">
-        <v>36.68333333333328</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
+      <c r="G111" t="n">
+        <v>-390361.2761736198</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C112" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D112" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E112" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F112" t="n">
+        <v>72</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-390361.2761736198</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C113" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D113" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E113" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F113" t="n">
+        <v>126</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-390361.2761736198</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C114" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D114" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E114" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F114" t="n">
+        <v>90</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-390361.2761736198</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C115" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E115" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F115" t="n">
+        <v>72</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-390361.2761736198</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C116" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D116" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E116" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F116" t="n">
+        <v>144</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-390361.2761736198</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C117" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D117" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E117" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F117" t="n">
+        <v>126</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-390361.2761736198</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C118" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D118" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E118" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F118" t="n">
+        <v>36</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-390361.2761736198</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C119" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E119" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F119" t="n">
+        <v>18</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-390361.2761736198</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C120" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D120" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E120" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F120" t="n">
+        <v>28</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-390333.2761736198</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C121" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D121" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E121" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F121" t="n">
+        <v>54</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-390387.2761736198</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C122" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D122" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E122" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7515.3569</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-390387.2761736198</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-19 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -454,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,6 +759,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -789,6 +803,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -830,6 +845,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -865,6 +881,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -900,6 +917,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -935,6 +953,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -970,6 +989,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1005,6 +1025,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1040,6 +1061,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1075,6 +1097,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1110,6 +1133,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1145,6 +1169,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1180,6 +1205,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1215,6 +1241,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,6 +1277,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1285,6 +1313,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,6 +1349,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1355,6 +1385,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1390,6 +1421,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1425,6 +1457,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1460,6 +1493,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1495,6 +1529,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1530,6 +1565,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1565,6 +1601,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1600,6 +1637,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1635,6 +1673,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1670,6 +1709,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1705,6 +1745,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1740,6 +1781,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1775,6 +1817,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1810,6 +1853,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1845,6 +1889,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1880,6 +1925,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1919,6 +1965,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1962,6 +2009,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2003,6 +2051,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2038,6 +2087,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2073,6 +2123,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2108,6 +2159,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2147,6 +2199,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2190,6 +2243,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2231,6 +2285,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2266,6 +2321,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2301,6 +2357,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2336,6 +2393,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2371,6 +2429,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2406,6 +2465,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2441,6 +2501,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2476,6 +2537,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2511,6 +2573,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,6 +2609,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2581,6 +2645,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,6 +2681,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2651,6 +2717,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2686,6 +2753,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2721,6 +2789,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2756,6 +2825,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2791,6 +2861,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2826,6 +2897,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2861,6 +2933,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2896,6 +2969,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2931,6 +3005,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2966,6 +3041,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3001,6 +3077,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3036,6 +3113,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3063,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3071,6 +3149,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3106,6 +3185,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3133,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3141,6 +3221,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3168,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3176,6 +3257,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3211,6 +3293,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3246,6 +3329,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3281,6 +3365,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3316,6 +3401,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3351,6 +3437,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3386,6 +3473,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3413,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3421,6 +3509,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3456,6 +3545,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3483,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3491,6 +3581,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3518,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3526,6 +3617,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3553,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3561,6 +3653,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3596,6 +3689,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3631,6 +3725,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3666,6 +3761,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3701,6 +3797,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3736,6 +3833,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3763,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3771,6 +3869,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3806,6 +3905,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3841,6 +3941,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3876,6 +3977,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3911,6 +4013,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3946,6 +4049,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3981,6 +4085,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4016,6 +4121,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4051,6 +4157,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4086,6 +4193,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4121,6 +4229,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4148,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4156,6 +4265,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4191,6 +4301,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4218,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4226,6 +4337,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4253,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4261,6 +4373,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4296,6 +4409,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4331,6 +4445,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4358,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4366,6 +4481,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4393,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4401,6 +4517,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4436,6 +4553,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4463,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4471,6 +4589,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4506,6 +4625,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4541,6 +4661,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4568,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4576,6 +4697,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4611,6 +4733,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4646,6 +4769,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4673,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4681,6 +4805,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4716,6 +4841,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-19 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="C2" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="D2" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="E2" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="F2" t="n">
-        <v>81.74386920000001</v>
+        <v>66.4191</v>
       </c>
       <c r="G2" t="n">
-        <v>-657736.6352312199</v>
+        <v>-423692.7391388199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="C3" t="n">
-        <v>36.4</v>
+        <v>36.8</v>
       </c>
       <c r="D3" t="n">
-        <v>36.4</v>
+        <v>36.8</v>
       </c>
       <c r="E3" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F3" t="n">
-        <v>2800</v>
+        <v>142557.5857</v>
       </c>
       <c r="G3" t="n">
-        <v>-660536.6352312199</v>
+        <v>-423692.7391388199</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36.4</v>
+        <v>36.9</v>
       </c>
       <c r="C4" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="D4" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="E4" t="n">
-        <v>36.4</v>
+        <v>36.9</v>
       </c>
       <c r="F4" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>-660406.6352312199</v>
+        <v>-423682.7391388199</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="F5" t="n">
-        <v>69.2076</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-660406.6352312199</v>
+        <v>-423672.7391388199</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="C6" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="D6" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="E6" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="F6" t="n">
-        <v>1697.3021</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>-662103.9373312199</v>
+        <v>-423682.7391388199</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="C7" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="D7" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="E7" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="F7" t="n">
-        <v>28340.6987692</v>
+        <v>10000</v>
       </c>
       <c r="G7" t="n">
-        <v>-633763.2385620199</v>
+        <v>-423682.7391388199</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="C8" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="D8" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="E8" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>3772</v>
       </c>
       <c r="G8" t="n">
-        <v>-643763.2385620199</v>
+        <v>-427454.7391388199</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="C9" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="D9" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="E9" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="F9" t="n">
-        <v>21327.8999</v>
+        <v>310</v>
       </c>
       <c r="G9" t="n">
-        <v>-643763.2385620199</v>
+        <v>-427454.7391388199</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,35 +726,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="D10" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="E10" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>32940.1814</v>
       </c>
       <c r="G10" t="n">
-        <v>-643753.2385620199</v>
+        <v>-427454.7391388199</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
@@ -766,40 +762,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36.4</v>
+        <v>36.8</v>
       </c>
       <c r="C11" t="n">
-        <v>36.4</v>
+        <v>36.8</v>
       </c>
       <c r="D11" t="n">
-        <v>36.4</v>
+        <v>36.8</v>
       </c>
       <c r="E11" t="n">
-        <v>36.4</v>
+        <v>36.8</v>
       </c>
       <c r="F11" t="n">
-        <v>19000</v>
+        <v>7459.5652</v>
       </c>
       <c r="G11" t="n">
-        <v>-662753.2385620199</v>
+        <v>-419995.1739388199</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -810,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="C12" t="n">
         <v>36.6</v>
       </c>
       <c r="D12" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="E12" t="n">
         <v>36.6</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>29758</v>
       </c>
       <c r="G12" t="n">
-        <v>-662743.2385620199</v>
+        <v>-449753.1739388199</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,14 +822,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -864,10 +846,10 @@
         <v>36.6</v>
       </c>
       <c r="F13" t="n">
-        <v>1004</v>
+        <v>2577</v>
       </c>
       <c r="G13" t="n">
-        <v>-662743.2385620199</v>
+        <v>-449753.1739388199</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -891,19 +873,19 @@
         <v>36.6</v>
       </c>
       <c r="C14" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="D14" t="n">
         <v>36.6</v>
       </c>
       <c r="E14" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="F14" t="n">
-        <v>2008</v>
+        <v>54</v>
       </c>
       <c r="G14" t="n">
-        <v>-664751.2385620199</v>
+        <v>-449753.1739388199</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -924,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C15" t="n">
         <v>36.6</v>
@@ -933,13 +915,13 @@
         <v>36.6</v>
       </c>
       <c r="E15" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>31555.5219</v>
       </c>
       <c r="G15" t="n">
-        <v>-664731.2385620199</v>
+        <v>-449753.1739388199</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -960,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C16" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D16" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E16" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F16" t="n">
-        <v>32725.6661</v>
+        <v>40090</v>
       </c>
       <c r="G16" t="n">
-        <v>-664731.2385620199</v>
+        <v>-489843.1739388199</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -996,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C17" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D17" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E17" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F17" t="n">
-        <v>274</v>
+        <v>7082.4771</v>
       </c>
       <c r="G17" t="n">
-        <v>-664731.2385620199</v>
+        <v>-489843.1739388199</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1032,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C18" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D18" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E18" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F18" t="n">
-        <v>21.9536</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>-664709.2849620199</v>
+        <v>-489843.1739388199</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1068,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C19" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="D19" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="E19" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F19" t="n">
-        <v>26989.3339</v>
+        <v>23.9972</v>
       </c>
       <c r="G19" t="n">
-        <v>-691698.6188620199</v>
+        <v>-489819.1767388199</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1104,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C20" t="n">
-        <v>36.8</v>
+        <v>36.4</v>
       </c>
       <c r="D20" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="E20" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="F20" t="n">
-        <v>151571.5745232</v>
+        <v>49875</v>
       </c>
       <c r="G20" t="n">
-        <v>-540127.0443388198</v>
+        <v>-539694.1767388199</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1140,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="C21" t="n">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="D21" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="E21" t="n">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="F21" t="n">
-        <v>933.7949</v>
+        <v>10719.2785</v>
       </c>
       <c r="G21" t="n">
-        <v>-541060.8392388198</v>
+        <v>-550413.4552388199</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1176,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="C22" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="D22" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="E22" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="F22" t="n">
-        <v>49.875</v>
+        <v>53036</v>
       </c>
       <c r="G22" t="n">
-        <v>-541110.7142388198</v>
+        <v>-550413.4552388199</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1212,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="C23" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="D23" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="E23" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="F23" t="n">
-        <v>79835.58289999999</v>
+        <v>72</v>
       </c>
       <c r="G23" t="n">
-        <v>-461275.1313388198</v>
+        <v>-550341.4552388199</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1248,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C24" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="D24" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="E24" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F24" t="n">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>-461160.1313388198</v>
+        <v>-550331.4552388199</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1284,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="C25" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="D25" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="E25" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="F25" t="n">
-        <v>38000</v>
+        <v>72</v>
       </c>
       <c r="G25" t="n">
-        <v>-499160.1313388198</v>
+        <v>-550403.4552388199</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1320,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="C26" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="D26" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="E26" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="F26" t="n">
-        <v>161.3279</v>
+        <v>324.9046</v>
       </c>
       <c r="G26" t="n">
-        <v>-498998.8034388198</v>
+        <v>-550078.5506388199</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1356,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="C27" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="D27" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="E27" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="F27" t="n">
-        <v>84.2547</v>
+        <v>7332.5920076</v>
       </c>
       <c r="G27" t="n">
-        <v>-498998.8034388198</v>
+        <v>-542745.9586312199</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1392,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="C28" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="D28" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="E28" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="F28" t="n">
-        <v>4388.943</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>-498998.8034388198</v>
+        <v>-542745.9586312199</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1428,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C29" t="n">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="D29" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E29" t="n">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="F29" t="n">
-        <v>7356.9482</v>
+        <v>115000.6766</v>
       </c>
       <c r="G29" t="n">
-        <v>-506355.7516388198</v>
+        <v>-657746.6352312199</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1464,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="C30" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D30" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="E30" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F30" t="n">
-        <v>20000</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>-526355.7516388198</v>
+        <v>-657736.6352312199</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1500,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C31" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D31" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E31" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F31" t="n">
-        <v>19010.3556</v>
+        <v>81.74386920000001</v>
       </c>
       <c r="G31" t="n">
-        <v>-526355.7516388198</v>
+        <v>-657736.6352312199</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1536,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C32" t="n">
         <v>36.4</v>
       </c>
       <c r="D32" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E32" t="n">
         <v>36.4</v>
       </c>
       <c r="F32" t="n">
-        <v>4676.2734</v>
+        <v>2800</v>
       </c>
       <c r="G32" t="n">
-        <v>-531032.0250388198</v>
+        <v>-660536.6352312199</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1572,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C33" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D33" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E33" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F33" t="n">
-        <v>7234.0526</v>
+        <v>130</v>
       </c>
       <c r="G33" t="n">
-        <v>-523797.9724388198</v>
+        <v>-660406.6352312199</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1608,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C34" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D34" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E34" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F34" t="n">
-        <v>151123.7282</v>
+        <v>69.2076</v>
       </c>
       <c r="G34" t="n">
-        <v>-523797.9724388198</v>
+        <v>-660406.6352312199</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1656,10 +1638,10 @@
         <v>36.5</v>
       </c>
       <c r="F35" t="n">
-        <v>17282.3542</v>
+        <v>1697.3021</v>
       </c>
       <c r="G35" t="n">
-        <v>-523797.9724388198</v>
+        <v>-662103.9373312199</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1680,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C36" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D36" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E36" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F36" t="n">
-        <v>198</v>
+        <v>28340.6987692</v>
       </c>
       <c r="G36" t="n">
-        <v>-523797.9724388198</v>
+        <v>-633763.2385620199</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1719,19 +1701,19 @@
         <v>36.5</v>
       </c>
       <c r="C37" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D37" t="n">
         <v>36.5</v>
       </c>
       <c r="E37" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F37" t="n">
-        <v>180</v>
+        <v>10000</v>
       </c>
       <c r="G37" t="n">
-        <v>-523797.9724388198</v>
+        <v>-643763.2385620199</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1752,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C38" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D38" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E38" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F38" t="n">
-        <v>294</v>
+        <v>21327.8999</v>
       </c>
       <c r="G38" t="n">
-        <v>-523797.9724388198</v>
+        <v>-643763.2385620199</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1788,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C39" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D39" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E39" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F39" t="n">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>-523797.9724388198</v>
+        <v>-643753.2385620199</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1824,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C40" t="n">
         <v>36.4</v>
       </c>
       <c r="D40" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E40" t="n">
         <v>36.4</v>
       </c>
       <c r="F40" t="n">
-        <v>126</v>
+        <v>19000</v>
       </c>
       <c r="G40" t="n">
-        <v>-523923.9724388198</v>
+        <v>-662753.2385620199</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1860,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C41" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="D41" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E41" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="F41" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>-523923.9724388198</v>
+        <v>-662743.2385620199</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1896,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C42" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="D42" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E42" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="F42" t="n">
-        <v>90</v>
+        <v>1004</v>
       </c>
       <c r="G42" t="n">
-        <v>-523923.9724388198</v>
+        <v>-662743.2385620199</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1932,35 +1914,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C43" t="n">
         <v>36.4</v>
       </c>
       <c r="D43" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E43" t="n">
         <v>36.4</v>
       </c>
       <c r="F43" t="n">
-        <v>180</v>
+        <v>2008</v>
       </c>
       <c r="G43" t="n">
-        <v>-523923.9724388198</v>
+        <v>-664751.2385620199</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="K43" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
@@ -1975,37 +1953,29 @@
         <v>36.4</v>
       </c>
       <c r="C44" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="D44" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E44" t="n">
         <v>36.4</v>
       </c>
       <c r="F44" t="n">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>-523923.9724388198</v>
+        <v>-664731.2385620199</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="K44" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2016,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C45" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="D45" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E45" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="F45" t="n">
-        <v>36</v>
+        <v>32725.6661</v>
       </c>
       <c r="G45" t="n">
-        <v>-523923.9724388198</v>
+        <v>-664731.2385620199</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2040,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C46" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D46" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E46" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F46" t="n">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="G46" t="n">
-        <v>-523717.9724388198</v>
+        <v>-664731.2385620199</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2094,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C47" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="D47" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="E47" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F47" t="n">
-        <v>90</v>
+        <v>21.9536</v>
       </c>
       <c r="G47" t="n">
-        <v>-523627.9724388198</v>
+        <v>-664709.2849620199</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2130,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C48" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D48" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E48" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F48" t="n">
-        <v>1815.896</v>
+        <v>26989.3339</v>
       </c>
       <c r="G48" t="n">
-        <v>-525443.8684388198</v>
+        <v>-691698.6188620199</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2166,35 +2130,31 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C49" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="D49" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="E49" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F49" t="n">
-        <v>157</v>
+        <v>151571.5745232</v>
       </c>
       <c r="G49" t="n">
-        <v>-525443.8684388198</v>
+        <v>-540127.0443388198</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K49" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
@@ -2206,40 +2166,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C50" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D50" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E50" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F50" t="n">
-        <v>358</v>
+        <v>933.7949</v>
       </c>
       <c r="G50" t="n">
-        <v>-525443.8684388198</v>
+        <v>-541060.8392388198</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K50" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2250,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C51" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D51" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E51" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F51" t="n">
-        <v>6277.4156</v>
+        <v>49.875</v>
       </c>
       <c r="G51" t="n">
-        <v>-525443.8684388198</v>
+        <v>-541110.7142388198</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2274,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2292,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C52" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D52" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E52" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F52" t="n">
-        <v>1532.658</v>
+        <v>79835.58289999999</v>
       </c>
       <c r="G52" t="n">
-        <v>-525443.8684388198</v>
+        <v>-461275.1313388198</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2328,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C53" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="D53" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="E53" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F53" t="n">
-        <v>181.896</v>
+        <v>115</v>
       </c>
       <c r="G53" t="n">
-        <v>-525443.8684388198</v>
+        <v>-461160.1313388198</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2364,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C54" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D54" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E54" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F54" t="n">
-        <v>90</v>
+        <v>38000</v>
       </c>
       <c r="G54" t="n">
-        <v>-525443.8684388198</v>
+        <v>-499160.1313388198</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2400,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="C55" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="D55" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="E55" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="F55" t="n">
-        <v>72</v>
+        <v>161.3279</v>
       </c>
       <c r="G55" t="n">
-        <v>-525443.8684388198</v>
+        <v>-498998.8034388198</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2436,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="C56" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="D56" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="E56" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="F56" t="n">
-        <v>18</v>
+        <v>84.2547</v>
       </c>
       <c r="G56" t="n">
-        <v>-525443.8684388198</v>
+        <v>-498998.8034388198</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2472,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="C57" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="D57" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="E57" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="F57" t="n">
-        <v>141</v>
+        <v>4388.943</v>
       </c>
       <c r="G57" t="n">
-        <v>-525443.8684388198</v>
+        <v>-498998.8034388198</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2508,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C58" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D58" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E58" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F58" t="n">
-        <v>18</v>
+        <v>7356.9482</v>
       </c>
       <c r="G58" t="n">
-        <v>-525443.8684388198</v>
+        <v>-506355.7516388198</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2544,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C59" t="n">
         <v>36.5</v>
       </c>
       <c r="D59" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E59" t="n">
         <v>36.5</v>
       </c>
       <c r="F59" t="n">
-        <v>54</v>
+        <v>20000</v>
       </c>
       <c r="G59" t="n">
-        <v>-525443.8684388198</v>
+        <v>-526355.7516388198</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2592,10 +2538,10 @@
         <v>36.5</v>
       </c>
       <c r="F60" t="n">
-        <v>18</v>
+        <v>19010.3556</v>
       </c>
       <c r="G60" t="n">
-        <v>-525443.8684388198</v>
+        <v>-526355.7516388198</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2619,19 +2565,19 @@
         <v>36.5</v>
       </c>
       <c r="C61" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D61" t="n">
         <v>36.5</v>
       </c>
       <c r="E61" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F61" t="n">
-        <v>36</v>
+        <v>4676.2734</v>
       </c>
       <c r="G61" t="n">
-        <v>-525443.8684388198</v>
+        <v>-531032.0250388198</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2664,10 +2610,10 @@
         <v>36.5</v>
       </c>
       <c r="F62" t="n">
-        <v>18</v>
+        <v>7234.0526</v>
       </c>
       <c r="G62" t="n">
-        <v>-525443.8684388198</v>
+        <v>-523797.9724388198</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2700,10 +2646,10 @@
         <v>36.5</v>
       </c>
       <c r="F63" t="n">
-        <v>7698.4685</v>
+        <v>151123.7282</v>
       </c>
       <c r="G63" t="n">
-        <v>-525443.8684388198</v>
+        <v>-523797.9724388198</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2727,19 +2673,19 @@
         <v>36.5</v>
       </c>
       <c r="C64" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D64" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E64" t="n">
         <v>36.5</v>
       </c>
       <c r="F64" t="n">
-        <v>130</v>
+        <v>17282.3542</v>
       </c>
       <c r="G64" t="n">
-        <v>-525313.8684388198</v>
+        <v>-523797.9724388198</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2772,10 +2718,10 @@
         <v>36.5</v>
       </c>
       <c r="F65" t="n">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="G65" t="n">
-        <v>-525367.8684388198</v>
+        <v>-523797.9724388198</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2808,10 +2754,10 @@
         <v>36.5</v>
       </c>
       <c r="F66" t="n">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="G66" t="n">
-        <v>-525367.8684388198</v>
+        <v>-523797.9724388198</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2838,16 +2784,16 @@
         <v>36.5</v>
       </c>
       <c r="D67" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E67" t="n">
         <v>36.5</v>
       </c>
       <c r="F67" t="n">
-        <v>655.3225</v>
+        <v>294</v>
       </c>
       <c r="G67" t="n">
-        <v>-525367.8684388198</v>
+        <v>-523797.9724388198</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2880,10 +2826,10 @@
         <v>36.5</v>
       </c>
       <c r="F68" t="n">
-        <v>55</v>
+        <v>298</v>
       </c>
       <c r="G68" t="n">
-        <v>-525367.8684388198</v>
+        <v>-523797.9724388198</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2907,19 +2853,19 @@
         <v>36.5</v>
       </c>
       <c r="C69" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D69" t="n">
         <v>36.5</v>
       </c>
       <c r="E69" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F69" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G69" t="n">
-        <v>-525367.8684388198</v>
+        <v>-523923.9724388198</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2940,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C70" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D70" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E70" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F70" t="n">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="G70" t="n">
-        <v>-525367.8684388198</v>
+        <v>-523923.9724388198</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2976,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C71" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D71" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E71" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F71" t="n">
-        <v>291</v>
+        <v>90</v>
       </c>
       <c r="G71" t="n">
-        <v>-525367.8684388198</v>
+        <v>-523923.9724388198</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3012,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C72" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D72" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E72" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F72" t="n">
-        <v>335.667</v>
+        <v>180</v>
       </c>
       <c r="G72" t="n">
-        <v>-525367.8684388198</v>
+        <v>-523923.9724388198</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3048,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C73" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D73" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E73" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F73" t="n">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="G73" t="n">
-        <v>-525367.8684388198</v>
+        <v>-523923.9724388198</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3084,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C74" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="D74" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="E74" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F74" t="n">
-        <v>13438.63</v>
+        <v>36</v>
       </c>
       <c r="G74" t="n">
-        <v>-511929.2384388198</v>
+        <v>-523923.9724388198</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3132,16 +3078,16 @@
         <v>36.5</v>
       </c>
       <c r="F75" t="n">
-        <v>561.968</v>
+        <v>206</v>
       </c>
       <c r="G75" t="n">
-        <v>-512491.2064388198</v>
+        <v>-523717.9724388198</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3159,19 +3105,19 @@
         <v>36.5</v>
       </c>
       <c r="C76" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D76" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E76" t="n">
         <v>36.5</v>
       </c>
       <c r="F76" t="n">
-        <v>33291.3575</v>
+        <v>90</v>
       </c>
       <c r="G76" t="n">
-        <v>-512491.2064388198</v>
+        <v>-523627.9724388198</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3192,28 +3138,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C77" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D77" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E77" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>1815.896</v>
       </c>
       <c r="G77" t="n">
-        <v>-512481.2064388198</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3240,16 +3186,16 @@
         <v>36.5</v>
       </c>
       <c r="F78" t="n">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="G78" t="n">
-        <v>-512535.2064388198</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3276,10 +3222,10 @@
         <v>36.5</v>
       </c>
       <c r="F79" t="n">
-        <v>36</v>
+        <v>358</v>
       </c>
       <c r="G79" t="n">
-        <v>-512535.2064388198</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3312,10 +3258,10 @@
         <v>36.5</v>
       </c>
       <c r="F80" t="n">
-        <v>36</v>
+        <v>6277.4156</v>
       </c>
       <c r="G80" t="n">
-        <v>-512535.2064388198</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3348,10 +3294,10 @@
         <v>36.5</v>
       </c>
       <c r="F81" t="n">
-        <v>36</v>
+        <v>1532.658</v>
       </c>
       <c r="G81" t="n">
-        <v>-512535.2064388198</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3384,10 +3330,10 @@
         <v>36.5</v>
       </c>
       <c r="F82" t="n">
-        <v>19534.5144</v>
+        <v>181.896</v>
       </c>
       <c r="G82" t="n">
-        <v>-512535.2064388198</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3408,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C83" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D83" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E83" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F83" t="n">
-        <v>6261.4309</v>
+        <v>90</v>
       </c>
       <c r="G83" t="n">
-        <v>-506273.7755388198</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3444,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C84" t="n">
         <v>36.5</v>
       </c>
       <c r="D84" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E84" t="n">
         <v>36.5</v>
       </c>
       <c r="F84" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="G84" t="n">
-        <v>-506363.7755388198</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3492,16 +3438,16 @@
         <v>36.5</v>
       </c>
       <c r="F85" t="n">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="G85" t="n">
-        <v>-506363.7755388198</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3516,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C86" t="n">
         <v>36.5</v>
       </c>
       <c r="D86" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E86" t="n">
         <v>36.5</v>
       </c>
       <c r="F86" t="n">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="G86" t="n">
-        <v>-506363.7755388198</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3552,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C87" t="n">
         <v>36.5</v>
       </c>
       <c r="D87" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E87" t="n">
         <v>36.5</v>
       </c>
       <c r="F87" t="n">
-        <v>222.968</v>
+        <v>18</v>
       </c>
       <c r="G87" t="n">
-        <v>-506363.7755388198</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3600,16 +3546,16 @@
         <v>36.5</v>
       </c>
       <c r="F88" t="n">
-        <v>2735.8262</v>
+        <v>54</v>
       </c>
       <c r="G88" t="n">
-        <v>-506363.7755388198</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3636,16 +3582,16 @@
         <v>36.5</v>
       </c>
       <c r="F89" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G89" t="n">
-        <v>-506363.7755388198</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3672,10 +3618,10 @@
         <v>36.5</v>
       </c>
       <c r="F90" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G90" t="n">
-        <v>-506363.7755388198</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3699,19 +3645,19 @@
         <v>36.5</v>
       </c>
       <c r="C91" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="D91" t="n">
         <v>36.5</v>
       </c>
       <c r="E91" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="F91" t="n">
-        <v>30085.9845</v>
+        <v>18</v>
       </c>
       <c r="G91" t="n">
-        <v>-536449.7600388197</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3744,10 +3690,10 @@
         <v>36.5</v>
       </c>
       <c r="F92" t="n">
-        <v>188</v>
+        <v>7698.4685</v>
       </c>
       <c r="G92" t="n">
-        <v>-536261.7600388197</v>
+        <v>-525443.8684388198</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3771,19 +3717,19 @@
         <v>36.5</v>
       </c>
       <c r="C93" t="n">
-        <v>36.3</v>
+        <v>36.6</v>
       </c>
       <c r="D93" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E93" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="F93" t="n">
-        <v>7338.5558</v>
+        <v>130</v>
       </c>
       <c r="G93" t="n">
-        <v>-543600.3158388197</v>
+        <v>-525313.8684388198</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3804,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C94" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D94" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E94" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="G94" t="n">
-        <v>-543590.3158388197</v>
+        <v>-525367.8684388198</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3840,28 +3786,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C95" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="D95" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="E95" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F95" t="n">
-        <v>135386.14315691</v>
+        <v>148</v>
       </c>
       <c r="G95" t="n">
-        <v>-408204.1726819098</v>
+        <v>-525367.8684388198</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3876,28 +3822,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C96" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D96" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="E96" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F96" t="n">
-        <v>36</v>
+        <v>655.3225</v>
       </c>
       <c r="G96" t="n">
-        <v>-408240.1726819098</v>
+        <v>-525367.8684388198</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3912,28 +3858,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C97" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D97" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E97" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F97" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G97" t="n">
-        <v>-408240.1726819098</v>
+        <v>-525367.8684388198</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3948,28 +3894,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C98" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D98" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E98" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F98" t="n">
-        <v>4614.7414</v>
+        <v>131</v>
       </c>
       <c r="G98" t="n">
-        <v>-412854.9140819098</v>
+        <v>-525367.8684388198</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3984,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C99" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D99" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E99" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F99" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="G99" t="n">
-        <v>-412836.9140819098</v>
+        <v>-525367.8684388198</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4020,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="C100" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="D100" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="E100" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="F100" t="n">
-        <v>54.1847826</v>
+        <v>291</v>
       </c>
       <c r="G100" t="n">
-        <v>-412782.7292993098</v>
+        <v>-525367.8684388198</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4056,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="C101" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D101" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="E101" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F101" t="n">
-        <v>4766.5566174</v>
+        <v>335.667</v>
       </c>
       <c r="G101" t="n">
-        <v>-417549.2859167098</v>
+        <v>-525367.8684388198</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4092,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C102" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D102" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E102" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F102" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G102" t="n">
-        <v>-417567.2859167098</v>
+        <v>-525367.8684388198</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4128,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C103" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="D103" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="E103" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F103" t="n">
-        <v>90</v>
+        <v>13438.63</v>
       </c>
       <c r="G103" t="n">
-        <v>-417477.2859167098</v>
+        <v>-511929.2384388198</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4164,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C104" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D104" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E104" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F104" t="n">
-        <v>4467.673</v>
+        <v>561.968</v>
       </c>
       <c r="G104" t="n">
-        <v>-417477.2859167098</v>
+        <v>-512491.2064388198</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4200,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="C105" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="D105" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="E105" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="F105" t="n">
-        <v>28031.82264309</v>
+        <v>33291.3575</v>
       </c>
       <c r="G105" t="n">
-        <v>-389445.4632736198</v>
+        <v>-512491.2064388198</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4236,28 +4182,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="C106" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="D106" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="E106" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="F106" t="n">
-        <v>1968.17735691</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>-389445.4632736198</v>
+        <v>-512481.2064388198</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4272,28 +4218,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C107" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D107" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E107" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F107" t="n">
-        <v>907.8129</v>
+        <v>54</v>
       </c>
       <c r="G107" t="n">
-        <v>-390353.2761736198</v>
+        <v>-512535.2064388198</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4308,28 +4254,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C108" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D108" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E108" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F108" t="n">
-        <v>5000</v>
+        <v>36</v>
       </c>
       <c r="G108" t="n">
-        <v>-390353.2761736198</v>
+        <v>-512535.2064388198</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4344,28 +4290,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C109" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D109" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E109" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F109" t="n">
-        <v>400</v>
+        <v>36</v>
       </c>
       <c r="G109" t="n">
-        <v>-390353.2761736198</v>
+        <v>-512535.2064388198</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4380,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="C110" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="D110" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="E110" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G110" t="n">
-        <v>-390343.2761736198</v>
+        <v>-512535.2064388198</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4416,28 +4362,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C111" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D111" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E111" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F111" t="n">
-        <v>18</v>
+        <v>19534.5144</v>
       </c>
       <c r="G111" t="n">
-        <v>-390361.2761736198</v>
+        <v>-512535.2064388198</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4464,16 +4410,16 @@
         <v>36.6</v>
       </c>
       <c r="F112" t="n">
-        <v>72</v>
+        <v>6261.4309</v>
       </c>
       <c r="G112" t="n">
-        <v>-390361.2761736198</v>
+        <v>-506273.7755388198</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4491,25 +4437,25 @@
         <v>36.6</v>
       </c>
       <c r="C113" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D113" t="n">
         <v>36.6</v>
       </c>
       <c r="E113" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F113" t="n">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="G113" t="n">
-        <v>-390361.2761736198</v>
+        <v>-506363.7755388198</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4524,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C114" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D114" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E114" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F114" t="n">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c r="G114" t="n">
-        <v>-390361.2761736198</v>
+        <v>-506363.7755388198</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4563,25 +4509,25 @@
         <v>36.6</v>
       </c>
       <c r="C115" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D115" t="n">
         <v>36.6</v>
       </c>
       <c r="E115" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F115" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G115" t="n">
-        <v>-390361.2761736198</v>
+        <v>-506363.7755388198</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4599,19 +4545,19 @@
         <v>36.6</v>
       </c>
       <c r="C116" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D116" t="n">
         <v>36.6</v>
       </c>
       <c r="E116" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F116" t="n">
-        <v>144</v>
+        <v>222.968</v>
       </c>
       <c r="G116" t="n">
-        <v>-390361.2761736198</v>
+        <v>-506363.7755388198</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4632,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C117" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D117" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E117" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F117" t="n">
-        <v>126</v>
+        <v>2735.8262</v>
       </c>
       <c r="G117" t="n">
-        <v>-390361.2761736198</v>
+        <v>-506363.7755388198</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4668,31 +4614,35 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C118" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D118" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E118" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F118" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G118" t="n">
-        <v>-390361.2761736198</v>
+        <v>-506363.7755388198</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K118" t="n">
+        <v>36.5</v>
+      </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
@@ -4704,32 +4654,40 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C119" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D119" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E119" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F119" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G119" t="n">
-        <v>-390361.2761736198</v>
+        <v>-506363.7755388198</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K119" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4740,32 +4698,40 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C120" t="n">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="D120" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E120" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="F120" t="n">
-        <v>28</v>
+        <v>30085.9845</v>
       </c>
       <c r="G120" t="n">
-        <v>-390333.2761736198</v>
+        <v>-536449.7600388197</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K120" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4776,32 +4742,40 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C121" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D121" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E121" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F121" t="n">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="G121" t="n">
-        <v>-390387.2761736198</v>
+        <v>-536261.7600388197</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K121" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4812,36 +4786,1176 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C122" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="D122" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7338.5558</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-543600.3158388197</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K122" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C123" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D123" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E123" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-543590.3158388197</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K123" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C124" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="D124" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="E124" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F124" t="n">
+        <v>135386.14315691</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-408204.1726819098</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K124" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F125" t="n">
+        <v>36</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-408240.1726819098</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C126" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>36</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-408240.1726819098</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C127" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D127" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4614.7414</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-412854.9140819098</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>18</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-412836.9140819098</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
         <v>36.8</v>
       </c>
-      <c r="E122" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F122" t="n">
+      <c r="C129" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>54.1847826</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-412782.7292993098</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4766.5566174</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-417549.2859167098</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D131" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E131" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>18</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-417567.2859167098</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C132" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D132" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F132" t="n">
+        <v>90</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-417477.2859167098</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C133" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D133" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4467.673</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-417477.2859167098</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C134" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="D134" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="F134" t="n">
+        <v>28031.82264309</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-389445.4632736198</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="C135" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="E135" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1968.17735691</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-389445.4632736198</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>907.8129</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-390353.2761736198</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1.000479452054795</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D137" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-390353.2761736198</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C138" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D138" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E138" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>400</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-390353.2761736198</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-390343.2761736198</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C140" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D140" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F140" t="n">
+        <v>18</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-390361.2761736198</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C141" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D141" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E141" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F141" t="n">
+        <v>72</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-390361.2761736198</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C142" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D142" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E142" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F142" t="n">
+        <v>126</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-390361.2761736198</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C143" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F143" t="n">
+        <v>90</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-390361.2761736198</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C144" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E144" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F144" t="n">
+        <v>72</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-390361.2761736198</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C145" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E145" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F145" t="n">
+        <v>144</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-390361.2761736198</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C146" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E146" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F146" t="n">
+        <v>126</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-390361.2761736198</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C147" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E147" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F147" t="n">
+        <v>36</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-390361.2761736198</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C148" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F148" t="n">
+        <v>18</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-390361.2761736198</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C149" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D149" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E149" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>28</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-390333.2761736198</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C150" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E150" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F150" t="n">
+        <v>54</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-390387.2761736198</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C151" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D151" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F151" t="n">
         <v>7515.3569</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G151" t="n">
         <v>-390387.2761736198</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-19 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-423692.7391388199</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-423692.7391388199</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,19 @@
         <v>-525367.8684388198</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>36.5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3658,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3697,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3736,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3769,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3802,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3833,15 @@
         <v>-512491.2064388198</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3866,15 @@
         <v>-512491.2064388198</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +3899,15 @@
         <v>-512481.2064388198</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +3932,15 @@
         <v>-512535.2064388198</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +3965,15 @@
         <v>-512535.2064388198</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4000,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4033,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4066,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4097,15 @@
         <v>-506273.7755388198</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4130,15 @@
         <v>-506363.7755388198</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4163,19 @@
         <v>-506363.7755388198</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>36.5</v>
+      </c>
+      <c r="J114" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,18 +4200,21 @@
         <v>-506363.7755388198</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,18 +4239,23 @@
         <v>-506363.7755388198</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>36.5</v>
+      </c>
+      <c r="J116" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4282,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,20 +4321,19 @@
       <c r="H118" t="n">
         <v>1</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
         <v>36.5</v>
       </c>
-      <c r="K118" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4674,454 +4360,407 @@
       <c r="H119" t="n">
         <v>1</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
         <v>36.5</v>
       </c>
-      <c r="K119" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C120" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="D120" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="F120" t="n">
+        <v>30085.9845</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-536449.7600388197</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>188</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-536261.7600388197</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J121" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="D122" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7338.5558</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-543600.3158388197</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C123" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D123" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E123" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-543590.3158388197</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J123" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C124" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="D124" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="E124" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F124" t="n">
+        <v>135386.14315691</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-408204.1726819098</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F125" t="n">
+        <v>36</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-408240.1726819098</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C126" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>36</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-408240.1726819098</v>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1.000479452054795</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C127" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D127" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4614.7414</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-412854.9140819098</v>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>18</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-412836.9140819098</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J128" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>54.1847826</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-412782.7292993098</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+      <c r="I129" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J129" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C120" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D120" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E120" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F120" t="n">
-        <v>30085.9845</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-536449.7600388197</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K120" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C121" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D121" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E121" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F121" t="n">
-        <v>188</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-536261.7600388197</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="K121" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C122" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D122" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E122" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F122" t="n">
-        <v>7338.5558</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-543600.3158388197</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K122" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C123" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D123" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E123" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F123" t="n">
-        <v>10</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-543590.3158388197</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="K123" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C124" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="D124" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="E124" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F124" t="n">
-        <v>135386.14315691</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-408204.1726819098</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K124" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="C125" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D125" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E125" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F125" t="n">
-        <v>36</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-408240.1726819098</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="C126" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D126" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E126" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F126" t="n">
-        <v>36</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-408240.1726819098</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C127" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D127" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E127" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F127" t="n">
-        <v>4614.7414</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-412854.9140819098</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="C128" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D128" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E128" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F128" t="n">
-        <v>18</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-412836.9140819098</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="C129" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="D129" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="E129" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="F129" t="n">
-        <v>54.1847826</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-412782.7292993098</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5146,24 +4785,23 @@
         <v>-417549.2859167098</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L130" t="inlineStr">
+        <v>36.8</v>
+      </c>
+      <c r="J130" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K130" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5188,24 +4826,19 @@
         <v>-417567.2859167098</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>36.7</v>
+      </c>
+      <c r="J131" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5230,24 +4863,23 @@
         <v>-417477.2859167098</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L132" t="inlineStr">
+        <v>36.6</v>
+      </c>
+      <c r="J132" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="K132" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5272,24 +4904,23 @@
         <v>-417477.2859167098</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L133" t="inlineStr">
+        <v>36.7</v>
+      </c>
+      <c r="J133" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5314,24 +4945,15 @@
         <v>-389445.4632736198</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5356,24 +4978,15 @@
         <v>-389445.4632736198</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5400,22 +5013,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1.000479452054795</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5442,16 +5046,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5476,18 +5077,15 @@
         <v>-390353.2761736198</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5514,16 +5112,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5548,18 +5143,15 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5584,18 +5176,15 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5620,18 +5209,15 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5658,16 +5244,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5694,16 +5277,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5730,16 +5310,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5766,16 +5343,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5802,16 +5376,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5838,16 +5409,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5874,16 +5442,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5910,16 +5475,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5946,18 +5508,15 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-19 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-423692.7391388199</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-423692.7391388199</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-423682.7391388199</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-423672.7391388199</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-423682.7391388199</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-423682.7391388199</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-449753.1739388199</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-449753.1739388199</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-449753.1739388199</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -2827,10 +2827,14 @@
         <v>-523923.9724388198</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J74" t="n">
+        <v>36.4</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
@@ -2863,8 +2867,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +2906,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3487,10 +3503,14 @@
         <v>-525367.8684388198</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J94" t="n">
+        <v>36.6</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
@@ -3523,8 +3543,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3582,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3621,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,15 +3657,19 @@
         <v>-525367.8684388198</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>36.5</v>
       </c>
       <c r="J98" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+        <v>36.6</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3660,11 +3702,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -3699,11 +3741,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3737,8 +3779,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3770,8 +3818,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3800,11 +3854,19 @@
         <v>-511929.2384388198</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J103" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3835,9 +3897,17 @@
       <c r="H104" t="n">
         <v>1</v>
       </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J104" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3868,9 +3938,17 @@
       <c r="H105" t="n">
         <v>1</v>
       </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J105" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3901,9 +3979,17 @@
       <c r="H106" t="n">
         <v>1</v>
       </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J106" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3934,9 +4020,17 @@
       <c r="H107" t="n">
         <v>1</v>
       </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J107" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3965,11 +4059,19 @@
         <v>-512535.2064388198</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J108" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4001,8 +4103,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4034,8 +4142,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4067,8 +4181,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4099,9 +4219,17 @@
       <c r="H112" t="n">
         <v>1</v>
       </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J112" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4132,9 +4260,17 @@
       <c r="H113" t="n">
         <v>1</v>
       </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J113" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4163,15 +4299,19 @@
         <v>-506363.7755388198</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>36.5</v>
       </c>
       <c r="J114" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
+        <v>36.6</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4202,13 +4342,15 @@
       <c r="H115" t="n">
         <v>1</v>
       </c>
-      <c r="I115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J115" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L115" t="n">
@@ -4239,13 +4381,13 @@
         <v>-506363.7755388198</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>36.5</v>
       </c>
       <c r="J116" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4280,11 +4422,13 @@
         <v>-506363.7755388198</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J117" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4321,9 +4465,11 @@
       <c r="H118" t="n">
         <v>1</v>
       </c>
-      <c r="I118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J118" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4360,9 +4506,11 @@
       <c r="H119" t="n">
         <v>1</v>
       </c>
-      <c r="I119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J119" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4399,9 +4547,11 @@
       <c r="H120" t="n">
         <v>1</v>
       </c>
-      <c r="I120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J120" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4436,13 +4586,13 @@
         <v>-536261.7600388197</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>36.3</v>
       </c>
       <c r="J121" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4479,9 +4629,11 @@
       <c r="H122" t="n">
         <v>1</v>
       </c>
-      <c r="I122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J122" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4516,13 +4668,13 @@
         <v>-543590.3158388197</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>36.3</v>
       </c>
       <c r="J123" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4559,9 +4711,11 @@
       <c r="H124" t="n">
         <v>1</v>
       </c>
-      <c r="I124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J124" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4600,7 +4754,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4635,19 +4789,19 @@
         <v>-408240.1726819098</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.000479452054795</v>
+        <v>1</v>
       </c>
       <c r="M126" t="inlineStr"/>
     </row>
@@ -4674,11 +4828,17 @@
         <v>-412854.9140819098</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4707,15 +4867,17 @@
         <v>-412836.9140819098</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
         <v>36.6</v>
       </c>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4744,17 +4906,15 @@
         <v>-412782.7292993098</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>36.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
         <v>36.6</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -4785,17 +4945,15 @@
         <v>-417549.2859167098</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>36.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
         <v>36.6</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L130" t="n">
@@ -4826,15 +4984,17 @@
         <v>-417567.2859167098</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>36.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
+        <v>36.6</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4863,17 +5023,17 @@
         <v>-417477.2859167098</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>36.6</v>
       </c>
       <c r="J132" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -4904,17 +5064,17 @@
         <v>-417477.2859167098</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>36.7</v>
       </c>
       <c r="J133" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -4945,11 +5105,17 @@
         <v>-389445.4632736198</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4978,11 +5144,17 @@
         <v>-389445.4632736198</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5014,8 +5186,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5047,8 +5225,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5077,11 +5261,17 @@
         <v>-390353.2761736198</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5113,8 +5303,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5143,11 +5339,17 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5176,11 +5378,17 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5209,11 +5417,17 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5245,8 +5459,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5278,8 +5498,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5311,8 +5537,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5344,8 +5576,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5377,8 +5615,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5410,8 +5654,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5443,8 +5693,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5476,8 +5732,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5509,14 +5771,20 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
       <c r="M151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-19 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>-427454.7391388199</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-427454.7391388199</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-419995.1739388199</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-449753.1739388199</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-539694.1767388199</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-550413.4552388199</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-550413.4552388199</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-550341.4552388199</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-542745.9586312199</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-657736.6352312199</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-660536.6352312199</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-643763.2385620199</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-498998.8034388198</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-506355.7516388198</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-526355.7516388198</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-531032.0250388198</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-523797.9724388198</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-523797.9724388198</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-523797.9724388198</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2827,14 +2827,10 @@
         <v>-523923.9724388198</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="J74" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
@@ -2867,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2906,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3503,14 +3487,10 @@
         <v>-525367.8684388198</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
@@ -3543,816 +3523,692 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K95" t="inlineStr">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C96" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D96" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E96" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>655.3225</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-525367.8684388198</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>55</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-525367.8684388198</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>131</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-525367.8684388198</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C99" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D99" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>72</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-525367.8684388198</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C100" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D100" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E100" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F100" t="n">
+        <v>291</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-525367.8684388198</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E101" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>335.667</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-525367.8684388198</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C102" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F102" t="n">
+        <v>90</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-525367.8684388198</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C103" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E103" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F103" t="n">
+        <v>13438.63</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-511929.2384388198</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E104" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>561.968</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-512491.2064388198</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C105" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E105" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F105" t="n">
+        <v>33291.3575</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-512491.2064388198</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C106" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D106" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E106" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F106" t="n">
+        <v>10</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-512481.2064388198</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J106" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>54</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-512535.2064388198</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C96" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D96" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E96" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F96" t="n">
-        <v>655.3225</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-525367.8684388198</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K96" t="inlineStr">
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>36</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-512535.2064388198</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J108" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>36</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-512535.2064388198</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F110" t="n">
+        <v>36</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-512535.2064388198</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>19534.5144</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-512535.2064388198</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C112" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D112" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E112" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F112" t="n">
+        <v>6261.4309</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-506273.7755388198</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C113" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E113" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F113" t="n">
+        <v>90</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-506363.7755388198</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>204</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-506363.7755388198</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C115" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E115" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>54</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-506363.7755388198</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C97" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D97" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E97" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F97" t="n">
-        <v>55</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-525367.8684388198</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C98" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D98" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E98" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F98" t="n">
-        <v>131</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-525367.8684388198</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C99" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D99" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E99" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F99" t="n">
-        <v>72</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-525367.8684388198</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C100" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D100" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E100" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F100" t="n">
-        <v>291</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-525367.8684388198</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C101" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D101" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E101" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F101" t="n">
-        <v>335.667</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-525367.8684388198</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C102" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D102" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E102" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F102" t="n">
-        <v>90</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-525367.8684388198</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C103" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D103" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E103" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F103" t="n">
-        <v>13438.63</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-511929.2384388198</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J103" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C104" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D104" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E104" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F104" t="n">
-        <v>561.968</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-512491.2064388198</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J104" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C105" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D105" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E105" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F105" t="n">
-        <v>33291.3575</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-512491.2064388198</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J105" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C106" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D106" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E106" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F106" t="n">
-        <v>10</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-512481.2064388198</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J106" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C107" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D107" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E107" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F107" t="n">
-        <v>54</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-512535.2064388198</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J107" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C108" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D108" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E108" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F108" t="n">
-        <v>36</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-512535.2064388198</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J108" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C109" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D109" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E109" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F109" t="n">
-        <v>36</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-512535.2064388198</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C110" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D110" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E110" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F110" t="n">
-        <v>36</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-512535.2064388198</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C111" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D111" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E111" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F111" t="n">
-        <v>19534.5144</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-512535.2064388198</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C112" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D112" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E112" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F112" t="n">
-        <v>6261.4309</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-506273.7755388198</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J112" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C113" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D113" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E113" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F113" t="n">
-        <v>90</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-506363.7755388198</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J113" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C114" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D114" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E114" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F114" t="n">
-        <v>204</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-506363.7755388198</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J114" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C115" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D115" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E115" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F115" t="n">
-        <v>54</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-506363.7755388198</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J115" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4381,14 +4237,10 @@
         <v>-506363.7755388198</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J116" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4422,14 +4274,10 @@
         <v>-506363.7755388198</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J117" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4468,9 +4316,7 @@
       <c r="I118" t="n">
         <v>36.5</v>
       </c>
-      <c r="J118" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4509,9 +4355,7 @@
       <c r="I119" t="n">
         <v>36.5</v>
       </c>
-      <c r="J119" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4550,9 +4394,7 @@
       <c r="I120" t="n">
         <v>36.5</v>
       </c>
-      <c r="J120" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4591,9 +4433,7 @@
       <c r="I121" t="n">
         <v>36.3</v>
       </c>
-      <c r="J121" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4632,9 +4472,7 @@
       <c r="I122" t="n">
         <v>36.5</v>
       </c>
-      <c r="J122" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4673,9 +4511,7 @@
       <c r="I123" t="n">
         <v>36.3</v>
       </c>
-      <c r="J123" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4714,9 +4550,7 @@
       <c r="I124" t="n">
         <v>36.6</v>
       </c>
-      <c r="J124" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4750,12 +4584,10 @@
         <v>-408240.1726819098</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4789,20 +4621,16 @@
         <v>-408240.1726819098</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
@@ -4831,14 +4659,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4867,17 +4689,11 @@
         <v>-412836.9140819098</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4906,17 +4722,11 @@
         <v>-412782.7292993098</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4945,17 +4755,11 @@
         <v>-417549.2859167098</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4984,17 +4788,11 @@
         <v>-417567.2859167098</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5023,19 +4821,11 @@
         <v>-417477.2859167098</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J132" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5064,19 +4854,11 @@
         <v>-417477.2859167098</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="J133" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5105,17 +4887,11 @@
         <v>-389445.4632736198</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5144,17 +4920,11 @@
         <v>-389445.4632736198</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5183,17 +4953,11 @@
         <v>-390353.2761736198</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5222,17 +4986,11 @@
         <v>-390353.2761736198</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5261,17 +5019,11 @@
         <v>-390353.2761736198</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5300,17 +5052,11 @@
         <v>-390343.2761736198</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5339,17 +5085,11 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5378,17 +5118,11 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5420,14 +5154,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5459,14 +5187,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5498,14 +5220,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5537,14 +5253,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5573,17 +5283,11 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5612,17 +5316,11 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5651,17 +5349,11 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5690,17 +5382,11 @@
         <v>-390333.2761736198</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5729,17 +5415,11 @@
         <v>-390387.2761736198</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5768,23 +5448,17 @@
         <v>-390387.2761736198</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
       <c r="M151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-19 BackTest HDAC.xlsx
@@ -451,7 +451,7 @@
         <v>-423692.7391388199</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-423692.7391388199</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-423682.7391388199</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-423672.7391388199</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-423682.7391388199</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-423682.7391388199</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-427454.7391388199</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-427454.7391388199</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-419995.1739388199</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-449753.1739388199</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-449753.1739388199</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-539694.1767388199</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-550413.4552388199</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-550413.4552388199</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-550341.4552388199</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-542745.9586312199</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-657736.6352312199</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-660536.6352312199</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-643763.2385620199</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-498998.8034388198</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-506355.7516388198</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-526355.7516388198</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-531032.0250388198</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-523797.9724388198</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-523797.9724388198</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-523797.9724388198</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3388,10 +3388,14 @@
         <v>-525443.8684388198</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J91" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3424,8 +3428,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3467,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3503,19 @@
         <v>-525367.8684388198</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J94" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3547,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3583,19 @@
         <v>-525367.8684388198</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J96" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3627,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3666,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3705,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +3744,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3783,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3822,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +3861,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +3900,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +3939,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,17 +3975,19 @@
         <v>-512481.2064388198</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>36.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
         <v>36.5</v>
       </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>0.9977397260273974</v>
       </c>
       <c r="M106" t="inlineStr"/>
     </row>
@@ -3923,14 +4017,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3959,19 +4047,11 @@
         <v>-512535.2064388198</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J108" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4165,10 +4245,14 @@
         <v>-506363.7755388198</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J114" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
@@ -4198,12 +4282,12 @@
         <v>-506363.7755388198</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -4237,10 +4321,14 @@
         <v>-506363.7755388198</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J116" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4274,10 +4362,14 @@
         <v>-506363.7755388198</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J117" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4316,7 +4408,9 @@
       <c r="I118" t="n">
         <v>36.5</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4355,7 +4449,9 @@
       <c r="I119" t="n">
         <v>36.5</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4394,7 +4490,9 @@
       <c r="I120" t="n">
         <v>36.5</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4433,7 +4531,9 @@
       <c r="I121" t="n">
         <v>36.3</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4472,7 +4572,9 @@
       <c r="I122" t="n">
         <v>36.5</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4511,7 +4613,9 @@
       <c r="I123" t="n">
         <v>36.3</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4550,7 +4654,9 @@
       <c r="I124" t="n">
         <v>36.6</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4587,7 +4693,9 @@
         <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4624,13 +4732,17 @@
         <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1.000479452054795</v>
+      </c>
       <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
@@ -4656,7 +4768,7 @@
         <v>-412854.9140819098</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4821,7 +4933,7 @@
         <v>-417477.2859167098</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4854,7 +4966,7 @@
         <v>-417477.2859167098</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4887,7 +4999,7 @@
         <v>-389445.4632736198</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4920,7 +5032,7 @@
         <v>-389445.4632736198</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5019,7 +5131,7 @@
         <v>-390353.2761736198</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5052,7 +5164,7 @@
         <v>-390343.2761736198</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5085,7 +5197,7 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5118,7 +5230,7 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5283,7 +5395,7 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5316,7 +5428,7 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5349,7 +5461,7 @@
         <v>-390361.2761736198</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5382,7 +5494,7 @@
         <v>-390333.2761736198</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5415,7 +5527,7 @@
         <v>-390387.2761736198</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5448,7 +5560,7 @@
         <v>-390387.2761736198</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-19 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>66.4191</v>
       </c>
       <c r="G2" t="n">
-        <v>-423692.7391388199</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>142557.5857</v>
       </c>
       <c r="G3" t="n">
-        <v>-423692.7391388199</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>-423682.7391388199</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-423672.7391388199</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>-423682.7391388199</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>10000</v>
       </c>
       <c r="G7" t="n">
-        <v>-423682.7391388199</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>3772</v>
       </c>
       <c r="G8" t="n">
-        <v>-427454.7391388199</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>310</v>
       </c>
       <c r="G9" t="n">
-        <v>-427454.7391388199</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>32940.1814</v>
       </c>
       <c r="G10" t="n">
-        <v>-427454.7391388199</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>7459.5652</v>
       </c>
       <c r="G11" t="n">
-        <v>-419995.1739388199</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>29758</v>
       </c>
       <c r="G12" t="n">
-        <v>-449753.1739388199</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>2577</v>
       </c>
       <c r="G13" t="n">
-        <v>-449753.1739388199</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>54</v>
       </c>
       <c r="G14" t="n">
-        <v>-449753.1739388199</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>31555.5219</v>
       </c>
       <c r="G15" t="n">
-        <v>-449753.1739388199</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>40090</v>
       </c>
       <c r="G16" t="n">
-        <v>-489843.1739388199</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>7082.4771</v>
       </c>
       <c r="G17" t="n">
-        <v>-489843.1739388199</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>-489843.1739388199</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>23.9972</v>
       </c>
       <c r="G19" t="n">
-        <v>-489819.1767388199</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>49875</v>
       </c>
       <c r="G20" t="n">
-        <v>-539694.1767388199</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>10719.2785</v>
       </c>
       <c r="G21" t="n">
-        <v>-550413.4552388199</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>53036</v>
       </c>
       <c r="G22" t="n">
-        <v>-550413.4552388199</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>72</v>
       </c>
       <c r="G23" t="n">
-        <v>-550341.4552388199</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>-550331.4552388199</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>72</v>
       </c>
       <c r="G25" t="n">
-        <v>-550403.4552388199</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>324.9046</v>
       </c>
       <c r="G26" t="n">
-        <v>-550078.5506388199</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>7332.5920076</v>
       </c>
       <c r="G27" t="n">
-        <v>-542745.9586312199</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>-542745.9586312199</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>115000.6766</v>
       </c>
       <c r="G29" t="n">
-        <v>-657746.6352312199</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>-657736.6352312199</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>81.74386920000001</v>
       </c>
       <c r="G31" t="n">
-        <v>-657736.6352312199</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2800</v>
       </c>
       <c r="G32" t="n">
-        <v>-660536.6352312199</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>130</v>
       </c>
       <c r="G33" t="n">
-        <v>-660406.6352312199</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>69.2076</v>
       </c>
       <c r="G34" t="n">
-        <v>-660406.6352312199</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1697.3021</v>
       </c>
       <c r="G35" t="n">
-        <v>-662103.9373312199</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>28340.6987692</v>
       </c>
       <c r="G36" t="n">
-        <v>-633763.2385620199</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>10000</v>
       </c>
       <c r="G37" t="n">
-        <v>-643763.2385620199</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>21327.8999</v>
       </c>
       <c r="G38" t="n">
-        <v>-643763.2385620199</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>-643753.2385620199</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>19000</v>
       </c>
       <c r="G40" t="n">
-        <v>-662753.2385620199</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>-662743.2385620199</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1004</v>
       </c>
       <c r="G42" t="n">
-        <v>-662743.2385620199</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2008</v>
       </c>
       <c r="G43" t="n">
-        <v>-664751.2385620199</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>-664731.2385620199</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>32725.6661</v>
       </c>
       <c r="G45" t="n">
-        <v>-664731.2385620199</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>274</v>
       </c>
       <c r="G46" t="n">
-        <v>-664731.2385620199</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>21.9536</v>
       </c>
       <c r="G47" t="n">
-        <v>-664709.2849620199</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>26989.3339</v>
       </c>
       <c r="G48" t="n">
-        <v>-691698.6188620199</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>151571.5745232</v>
       </c>
       <c r="G49" t="n">
-        <v>-540127.0443388198</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>933.7949</v>
       </c>
       <c r="G50" t="n">
-        <v>-541060.8392388198</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>49.875</v>
       </c>
       <c r="G51" t="n">
-        <v>-541110.7142388198</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>79835.58289999999</v>
       </c>
       <c r="G52" t="n">
-        <v>-461275.1313388198</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>115</v>
       </c>
       <c r="G53" t="n">
-        <v>-461160.1313388198</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>38000</v>
       </c>
       <c r="G54" t="n">
-        <v>-499160.1313388198</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>161.3279</v>
       </c>
       <c r="G55" t="n">
-        <v>-498998.8034388198</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>84.2547</v>
       </c>
       <c r="G56" t="n">
-        <v>-498998.8034388198</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>4388.943</v>
       </c>
       <c r="G57" t="n">
-        <v>-498998.8034388198</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>7356.9482</v>
       </c>
       <c r="G58" t="n">
-        <v>-506355.7516388198</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>20000</v>
       </c>
       <c r="G59" t="n">
-        <v>-526355.7516388198</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>19010.3556</v>
       </c>
       <c r="G60" t="n">
-        <v>-526355.7516388198</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>4676.2734</v>
       </c>
       <c r="G61" t="n">
-        <v>-531032.0250388198</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>7234.0526</v>
       </c>
       <c r="G62" t="n">
-        <v>-523797.9724388198</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>151123.7282</v>
       </c>
       <c r="G63" t="n">
-        <v>-523797.9724388198</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>17282.3542</v>
       </c>
       <c r="G64" t="n">
-        <v>-523797.9724388198</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>198</v>
       </c>
       <c r="G65" t="n">
-        <v>-523797.9724388198</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>180</v>
       </c>
       <c r="G66" t="n">
-        <v>-523797.9724388198</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>294</v>
       </c>
       <c r="G67" t="n">
-        <v>-523797.9724388198</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>298</v>
       </c>
       <c r="G68" t="n">
-        <v>-523797.9724388198</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>126</v>
       </c>
       <c r="G69" t="n">
-        <v>-523923.9724388198</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>180</v>
       </c>
       <c r="G70" t="n">
-        <v>-523923.9724388198</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>90</v>
       </c>
       <c r="G71" t="n">
-        <v>-523923.9724388198</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>180</v>
       </c>
       <c r="G72" t="n">
-        <v>-523923.9724388198</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>54</v>
       </c>
       <c r="G73" t="n">
-        <v>-523923.9724388198</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>36</v>
       </c>
       <c r="G74" t="n">
-        <v>-523923.9724388198</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>206</v>
       </c>
       <c r="G75" t="n">
-        <v>-523717.9724388198</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>90</v>
       </c>
       <c r="G76" t="n">
-        <v>-523627.9724388198</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>1815.896</v>
       </c>
       <c r="G77" t="n">
-        <v>-525443.8684388198</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>157</v>
       </c>
       <c r="G78" t="n">
-        <v>-525443.8684388198</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>358</v>
       </c>
       <c r="G79" t="n">
-        <v>-525443.8684388198</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>6277.4156</v>
       </c>
       <c r="G80" t="n">
-        <v>-525443.8684388198</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1532.658</v>
       </c>
       <c r="G81" t="n">
-        <v>-525443.8684388198</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>181.896</v>
       </c>
       <c r="G82" t="n">
-        <v>-525443.8684388198</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>90</v>
       </c>
       <c r="G83" t="n">
-        <v>-525443.8684388198</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>72</v>
       </c>
       <c r="G84" t="n">
-        <v>-525443.8684388198</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>18</v>
       </c>
       <c r="G85" t="n">
-        <v>-525443.8684388198</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>141</v>
       </c>
       <c r="G86" t="n">
-        <v>-525443.8684388198</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>18</v>
       </c>
       <c r="G87" t="n">
-        <v>-525443.8684388198</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>54</v>
       </c>
       <c r="G88" t="n">
-        <v>-525443.8684388198</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>18</v>
       </c>
       <c r="G89" t="n">
-        <v>-525443.8684388198</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>36</v>
       </c>
       <c r="G90" t="n">
-        <v>-525443.8684388198</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,22 +3113,15 @@
         <v>18</v>
       </c>
       <c r="G91" t="n">
-        <v>-525443.8684388198</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3422,24 +3143,15 @@
         <v>7698.4685</v>
       </c>
       <c r="G92" t="n">
-        <v>-525443.8684388198</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3461,24 +3173,15 @@
         <v>130</v>
       </c>
       <c r="G93" t="n">
-        <v>-525313.8684388198</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3500,26 +3203,15 @@
         <v>54</v>
       </c>
       <c r="G94" t="n">
-        <v>-525367.8684388198</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3541,24 +3233,15 @@
         <v>148</v>
       </c>
       <c r="G95" t="n">
-        <v>-525367.8684388198</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3580,26 +3263,15 @@
         <v>655.3225</v>
       </c>
       <c r="G96" t="n">
-        <v>-525367.8684388198</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J96" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3621,24 +3293,15 @@
         <v>55</v>
       </c>
       <c r="G97" t="n">
-        <v>-525367.8684388198</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3660,24 +3323,15 @@
         <v>131</v>
       </c>
       <c r="G98" t="n">
-        <v>-525367.8684388198</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3699,24 +3353,15 @@
         <v>72</v>
       </c>
       <c r="G99" t="n">
-        <v>-525367.8684388198</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3738,24 +3383,15 @@
         <v>291</v>
       </c>
       <c r="G100" t="n">
-        <v>-525367.8684388198</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3777,24 +3413,15 @@
         <v>335.667</v>
       </c>
       <c r="G101" t="n">
-        <v>-525367.8684388198</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3816,24 +3443,19 @@
         <v>90</v>
       </c>
       <c r="G102" t="n">
-        <v>-525367.8684388198</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>36.5</v>
+      </c>
+      <c r="I102" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3855,24 +3477,21 @@
         <v>13438.63</v>
       </c>
       <c r="G103" t="n">
-        <v>-511929.2384388198</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3894,24 +3513,23 @@
         <v>561.968</v>
       </c>
       <c r="G104" t="n">
-        <v>-512491.2064388198</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
+        <v>36.6</v>
+      </c>
+      <c r="I104" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3933,24 +3551,23 @@
         <v>33291.3575</v>
       </c>
       <c r="G105" t="n">
-        <v>-512491.2064388198</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
+        <v>36.5</v>
+      </c>
+      <c r="I105" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3972,24 +3589,23 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>-512481.2064388198</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>0.9977397260273974</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>36.5</v>
+      </c>
+      <c r="I106" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4011,18 +3627,23 @@
         <v>54</v>
       </c>
       <c r="G107" t="n">
-        <v>-512535.2064388198</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>36.6</v>
+      </c>
+      <c r="I107" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4044,18 +3665,23 @@
         <v>36</v>
       </c>
       <c r="G108" t="n">
-        <v>-512535.2064388198</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>36.5</v>
+      </c>
+      <c r="I108" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4077,18 +3703,21 @@
         <v>36</v>
       </c>
       <c r="G109" t="n">
-        <v>-512535.2064388198</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4110,18 +3739,21 @@
         <v>36</v>
       </c>
       <c r="G110" t="n">
-        <v>-512535.2064388198</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4143,18 +3775,21 @@
         <v>19534.5144</v>
       </c>
       <c r="G111" t="n">
-        <v>-512535.2064388198</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4176,18 +3811,21 @@
         <v>6261.4309</v>
       </c>
       <c r="G112" t="n">
-        <v>-506273.7755388198</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4209,18 +3847,21 @@
         <v>90</v>
       </c>
       <c r="G113" t="n">
-        <v>-506363.7755388198</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4242,22 +3883,21 @@
         <v>204</v>
       </c>
       <c r="G114" t="n">
-        <v>-506363.7755388198</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
         <v>36.5</v>
       </c>
-      <c r="J114" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4279,24 +3919,21 @@
         <v>54</v>
       </c>
       <c r="G115" t="n">
-        <v>-506363.7755388198</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4318,26 +3955,21 @@
         <v>222.968</v>
       </c>
       <c r="G116" t="n">
-        <v>-506363.7755388198</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
         <v>36.5</v>
       </c>
-      <c r="J116" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K116" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4359,26 +3991,21 @@
         <v>2735.8262</v>
       </c>
       <c r="G117" t="n">
-        <v>-506363.7755388198</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
         <v>36.5</v>
       </c>
-      <c r="J117" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K117" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4400,26 +4027,21 @@
         <v>72</v>
       </c>
       <c r="G118" t="n">
-        <v>-506363.7755388198</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
         <v>36.5</v>
       </c>
-      <c r="J118" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K118" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4441,26 +4063,21 @@
         <v>54</v>
       </c>
       <c r="G119" t="n">
-        <v>-506363.7755388198</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
         <v>36.5</v>
       </c>
-      <c r="J119" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K119" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4482,26 +4099,21 @@
         <v>30085.9845</v>
       </c>
       <c r="G120" t="n">
-        <v>-536449.7600388197</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
         <v>36.5</v>
       </c>
-      <c r="J120" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4523,26 +4135,21 @@
         <v>188</v>
       </c>
       <c r="G121" t="n">
-        <v>-536261.7600388197</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="J121" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K121" t="inlineStr">
+        <v>36.5</v>
+      </c>
+      <c r="J121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4564,26 +4171,21 @@
         <v>7338.5558</v>
       </c>
       <c r="G122" t="n">
-        <v>-543600.3158388197</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
         <v>36.5</v>
       </c>
-      <c r="J122" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K122" t="inlineStr">
+      <c r="J122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4605,26 +4207,21 @@
         <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>-543590.3158388197</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="J123" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K123" t="inlineStr">
+        <v>36.5</v>
+      </c>
+      <c r="J123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4646,26 +4243,21 @@
         <v>135386.14315691</v>
       </c>
       <c r="G124" t="n">
-        <v>-408204.1726819098</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="J124" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K124" t="inlineStr">
+        <v>36.5</v>
+      </c>
+      <c r="J124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4687,24 +4279,21 @@
         <v>36</v>
       </c>
       <c r="G125" t="n">
-        <v>-408240.1726819098</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K125" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4726,24 +4315,21 @@
         <v>36</v>
       </c>
       <c r="G126" t="n">
-        <v>-408240.1726819098</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1.000479452054795</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4765,18 +4351,21 @@
         <v>4614.7414</v>
       </c>
       <c r="G127" t="n">
-        <v>-412854.9140819098</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4798,18 +4387,21 @@
         <v>18</v>
       </c>
       <c r="G128" t="n">
-        <v>-412836.9140819098</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4831,18 +4423,21 @@
         <v>54.1847826</v>
       </c>
       <c r="G129" t="n">
-        <v>-412782.7292993098</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4864,18 +4459,21 @@
         <v>4766.5566174</v>
       </c>
       <c r="G130" t="n">
-        <v>-417549.2859167098</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4897,18 +4495,21 @@
         <v>18</v>
       </c>
       <c r="G131" t="n">
-        <v>-417567.2859167098</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4930,18 +4531,21 @@
         <v>90</v>
       </c>
       <c r="G132" t="n">
-        <v>-417477.2859167098</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4963,18 +4567,21 @@
         <v>4467.673</v>
       </c>
       <c r="G133" t="n">
-        <v>-417477.2859167098</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4996,18 +4603,21 @@
         <v>28031.82264309</v>
       </c>
       <c r="G134" t="n">
-        <v>-389445.4632736198</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5029,18 +4639,21 @@
         <v>1968.17735691</v>
       </c>
       <c r="G135" t="n">
-        <v>-389445.4632736198</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5062,18 +4675,21 @@
         <v>907.8129</v>
       </c>
       <c r="G136" t="n">
-        <v>-390353.2761736198</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5095,18 +4711,21 @@
         <v>5000</v>
       </c>
       <c r="G137" t="n">
-        <v>-390353.2761736198</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5128,18 +4747,21 @@
         <v>400</v>
       </c>
       <c r="G138" t="n">
-        <v>-390353.2761736198</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5161,18 +4783,21 @@
         <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>-390343.2761736198</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5194,18 +4819,21 @@
         <v>18</v>
       </c>
       <c r="G140" t="n">
-        <v>-390361.2761736198</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5227,18 +4855,21 @@
         <v>72</v>
       </c>
       <c r="G141" t="n">
-        <v>-390361.2761736198</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5260,18 +4891,21 @@
         <v>126</v>
       </c>
       <c r="G142" t="n">
-        <v>-390361.2761736198</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5293,18 +4927,21 @@
         <v>90</v>
       </c>
       <c r="G143" t="n">
-        <v>-390361.2761736198</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5326,18 +4963,21 @@
         <v>72</v>
       </c>
       <c r="G144" t="n">
-        <v>-390361.2761736198</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5359,18 +4999,21 @@
         <v>144</v>
       </c>
       <c r="G145" t="n">
-        <v>-390361.2761736198</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5392,18 +5035,21 @@
         <v>126</v>
       </c>
       <c r="G146" t="n">
-        <v>-390361.2761736198</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5425,18 +5071,21 @@
         <v>36</v>
       </c>
       <c r="G147" t="n">
-        <v>-390361.2761736198</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5458,18 +5107,21 @@
         <v>18</v>
       </c>
       <c r="G148" t="n">
-        <v>-390361.2761736198</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5491,18 +5143,21 @@
         <v>28</v>
       </c>
       <c r="G149" t="n">
-        <v>-390333.2761736198</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5524,18 +5179,21 @@
         <v>54</v>
       </c>
       <c r="G150" t="n">
-        <v>-390387.2761736198</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5557,18 +5215,21 @@
         <v>7515.3569</v>
       </c>
       <c r="G151" t="n">
-        <v>-390387.2761736198</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
